--- a/config/Moonshot_CCCDI project list_070122.xlsx
+++ b/config/Moonshot_CCCDI project list_070122.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deforgeac/Documents/projects/INS/temp_repos/INS-ETL/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003C2716-62BE-1C41-B263-944923DD14B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE820877-3A8E-874D-A68B-A7AD364E517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{012BF7AE-525E-4078-AF26-F4A8100B414C}"/>
+    <workbookView xWindow="-34880" yWindow="1620" windowWidth="35840" windowHeight="19400" xr2:uid="{012BF7AE-525E-4078-AF26-F4A8100B414C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$780</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$779</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="1390">
   <si>
     <t>Program</t>
   </si>
@@ -3689,9 +3689,6 @@
   </si>
   <si>
     <t>5U01DE028233-02</t>
-  </si>
-  <si>
-    <t>5U01DE028233-03</t>
   </si>
   <si>
     <t>5U01DE028233-05</t>
@@ -4562,10 +4559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93592046-CA29-4529-A6B8-2F3073607F7B}">
-  <dimension ref="A1:E780"/>
+  <dimension ref="A1:E779"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
+      <selection activeCell="F659" sqref="F659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4580,7 +4577,7 @@
         <v>606</v>
       </c>
       <c r="B1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -4591,111 +4588,111 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E2" t="s">
         <v>1337</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B7" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D7" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E7" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D8" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E8" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B9" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D9" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -4703,13 +4700,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B10" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -4717,13 +4714,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B11" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D11" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -4731,13 +4728,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B12" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D12" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -4745,13 +4742,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B13" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D13" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -4759,13 +4756,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B14" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D14" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -4773,13 +4770,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B15" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D15" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -4787,13 +4784,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B16" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D16" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -4801,13 +4798,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B17" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D17" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -4815,13 +4812,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B18" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D18" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -4829,13 +4826,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B19" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D19" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -4843,13 +4840,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B20" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D20" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -4857,13 +4854,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B21" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D21" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -4871,13 +4868,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B22" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D22" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -4885,13 +4882,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B23" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D23" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -4899,13 +4896,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D24" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -4913,13 +4910,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B25" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D25" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -4927,13 +4924,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B26" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D26" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -4941,13 +4938,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B27" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D27" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -4955,13 +4952,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B28" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D28" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -4969,41 +4966,41 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B29" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D29" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E29" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B30" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D30" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E30" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B31" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D31" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -5011,13 +5008,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B32" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D32" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -5025,13 +5022,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B33" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D33" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -5039,13 +5036,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B34" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D34" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -5053,27 +5050,27 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B35" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E35" t="s">
         <v>1389</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B36" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D36" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -5081,13 +5078,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B37" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D37" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -5095,13 +5092,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B38" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D38" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -5109,13 +5106,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B39" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D39" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -5123,13 +5120,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B40" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D40" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -5137,13 +5134,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B41" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D41" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -5151,13 +5148,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B42" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D42" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -5165,13 +5162,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B43" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D43" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E43" t="s">
         <v>34</v>
@@ -5179,13 +5176,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B44" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D44" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
@@ -5193,13 +5190,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B45" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D45" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E45" t="s">
         <v>34</v>
@@ -5207,13 +5204,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B46" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D46" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -5221,13 +5218,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B47" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D47" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -5235,13 +5232,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B48" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D48" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -5249,13 +5246,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B49" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D49" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -5263,13 +5260,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D50" t="s">
         <v>1386</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1387</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -5280,7 +5277,7 @@
         <v>607</v>
       </c>
       <c r="B51" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -5294,7 +5291,7 @@
         <v>608</v>
       </c>
       <c r="B52" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -5308,7 +5305,7 @@
         <v>609</v>
       </c>
       <c r="B53" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -5322,7 +5319,7 @@
         <v>610</v>
       </c>
       <c r="B54" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -5336,7 +5333,7 @@
         <v>611</v>
       </c>
       <c r="B55" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -5350,7 +5347,7 @@
         <v>612</v>
       </c>
       <c r="B56" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -5364,7 +5361,7 @@
         <v>613</v>
       </c>
       <c r="B57" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -5378,7 +5375,7 @@
         <v>614</v>
       </c>
       <c r="B58" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -5392,7 +5389,7 @@
         <v>615</v>
       </c>
       <c r="B59" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -5406,7 +5403,7 @@
         <v>616</v>
       </c>
       <c r="B60" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -5420,7 +5417,7 @@
         <v>617</v>
       </c>
       <c r="B61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -5434,7 +5431,7 @@
         <v>618</v>
       </c>
       <c r="B62" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -5448,7 +5445,7 @@
         <v>619</v>
       </c>
       <c r="B63" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -5462,7 +5459,7 @@
         <v>620</v>
       </c>
       <c r="B64" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -5476,7 +5473,7 @@
         <v>621</v>
       </c>
       <c r="B65" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -5490,7 +5487,7 @@
         <v>622</v>
       </c>
       <c r="B66" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -5504,7 +5501,7 @@
         <v>623</v>
       </c>
       <c r="B67" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -5518,7 +5515,7 @@
         <v>624</v>
       </c>
       <c r="B68" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -5532,7 +5529,7 @@
         <v>625</v>
       </c>
       <c r="B69" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -5546,7 +5543,7 @@
         <v>626</v>
       </c>
       <c r="B70" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -5560,7 +5557,7 @@
         <v>627</v>
       </c>
       <c r="B71" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -5574,7 +5571,7 @@
         <v>628</v>
       </c>
       <c r="B72" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
@@ -5588,7 +5585,7 @@
         <v>629</v>
       </c>
       <c r="B73" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -5602,7 +5599,7 @@
         <v>630</v>
       </c>
       <c r="B74" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -5616,7 +5613,7 @@
         <v>631</v>
       </c>
       <c r="B75" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -5630,7 +5627,7 @@
         <v>632</v>
       </c>
       <c r="B76" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -5644,7 +5641,7 @@
         <v>633</v>
       </c>
       <c r="B77" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -5658,7 +5655,7 @@
         <v>634</v>
       </c>
       <c r="B78" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -5672,7 +5669,7 @@
         <v>635</v>
       </c>
       <c r="B79" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
@@ -5686,7 +5683,7 @@
         <v>636</v>
       </c>
       <c r="B80" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -5700,7 +5697,7 @@
         <v>637</v>
       </c>
       <c r="B81" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -5714,7 +5711,7 @@
         <v>638</v>
       </c>
       <c r="B82" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -5728,7 +5725,7 @@
         <v>639</v>
       </c>
       <c r="B83" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -5742,7 +5739,7 @@
         <v>640</v>
       </c>
       <c r="B84" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -5756,7 +5753,7 @@
         <v>641</v>
       </c>
       <c r="B85" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
@@ -5770,7 +5767,7 @@
         <v>642</v>
       </c>
       <c r="B86" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -5784,7 +5781,7 @@
         <v>643</v>
       </c>
       <c r="B87" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D87" t="s">
         <v>1</v>
@@ -5798,7 +5795,7 @@
         <v>644</v>
       </c>
       <c r="B88" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D88" t="s">
         <v>1</v>
@@ -5812,7 +5809,7 @@
         <v>645</v>
       </c>
       <c r="B89" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
@@ -5826,7 +5823,7 @@
         <v>646</v>
       </c>
       <c r="B90" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
@@ -5840,7 +5837,7 @@
         <v>647</v>
       </c>
       <c r="B91" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
@@ -5854,7 +5851,7 @@
         <v>648</v>
       </c>
       <c r="B92" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
@@ -5868,7 +5865,7 @@
         <v>649</v>
       </c>
       <c r="B93" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
@@ -5882,7 +5879,7 @@
         <v>650</v>
       </c>
       <c r="B94" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -5896,7 +5893,7 @@
         <v>651</v>
       </c>
       <c r="B95" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -5910,7 +5907,7 @@
         <v>652</v>
       </c>
       <c r="B96" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -5924,7 +5921,7 @@
         <v>653</v>
       </c>
       <c r="B97" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -5938,7 +5935,7 @@
         <v>654</v>
       </c>
       <c r="B98" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -5952,7 +5949,7 @@
         <v>655</v>
       </c>
       <c r="B99" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -5966,7 +5963,7 @@
         <v>656</v>
       </c>
       <c r="B100" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -5980,7 +5977,7 @@
         <v>657</v>
       </c>
       <c r="B101" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -5994,7 +5991,7 @@
         <v>658</v>
       </c>
       <c r="B102" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -6008,7 +6005,7 @@
         <v>659</v>
       </c>
       <c r="B103" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -6022,7 +6019,7 @@
         <v>660</v>
       </c>
       <c r="B104" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -6036,7 +6033,7 @@
         <v>661</v>
       </c>
       <c r="B105" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -6050,7 +6047,7 @@
         <v>662</v>
       </c>
       <c r="B106" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -6064,7 +6061,7 @@
         <v>663</v>
       </c>
       <c r="B107" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
@@ -6078,7 +6075,7 @@
         <v>664</v>
       </c>
       <c r="B108" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -6092,7 +6089,7 @@
         <v>665</v>
       </c>
       <c r="B109" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
@@ -6106,7 +6103,7 @@
         <v>666</v>
       </c>
       <c r="B110" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
@@ -6120,7 +6117,7 @@
         <v>667</v>
       </c>
       <c r="B111" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -6134,7 +6131,7 @@
         <v>668</v>
       </c>
       <c r="B112" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -6148,7 +6145,7 @@
         <v>669</v>
       </c>
       <c r="B113" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
@@ -6162,7 +6159,7 @@
         <v>670</v>
       </c>
       <c r="B114" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
@@ -6176,7 +6173,7 @@
         <v>671</v>
       </c>
       <c r="B115" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -6190,7 +6187,7 @@
         <v>672</v>
       </c>
       <c r="B116" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D116" t="s">
         <v>1</v>
@@ -6204,7 +6201,7 @@
         <v>673</v>
       </c>
       <c r="B117" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -6218,7 +6215,7 @@
         <v>674</v>
       </c>
       <c r="B118" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -6232,7 +6229,7 @@
         <v>675</v>
       </c>
       <c r="B119" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
@@ -6246,7 +6243,7 @@
         <v>676</v>
       </c>
       <c r="B120" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
@@ -6260,7 +6257,7 @@
         <v>677</v>
       </c>
       <c r="B121" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D121" t="s">
         <v>1</v>
@@ -6274,7 +6271,7 @@
         <v>678</v>
       </c>
       <c r="B122" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -6288,7 +6285,7 @@
         <v>679</v>
       </c>
       <c r="B123" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -6302,7 +6299,7 @@
         <v>680</v>
       </c>
       <c r="B124" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -6316,7 +6313,7 @@
         <v>681</v>
       </c>
       <c r="B125" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
@@ -6330,7 +6327,7 @@
         <v>682</v>
       </c>
       <c r="B126" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -6344,7 +6341,7 @@
         <v>683</v>
       </c>
       <c r="B127" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -6358,7 +6355,7 @@
         <v>684</v>
       </c>
       <c r="B128" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -6372,7 +6369,7 @@
         <v>685</v>
       </c>
       <c r="B129" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D129" t="s">
         <v>1</v>
@@ -6386,7 +6383,7 @@
         <v>686</v>
       </c>
       <c r="B130" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -6400,7 +6397,7 @@
         <v>687</v>
       </c>
       <c r="B131" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D131" t="s">
         <v>1</v>
@@ -6414,7 +6411,7 @@
         <v>688</v>
       </c>
       <c r="B132" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -6428,7 +6425,7 @@
         <v>689</v>
       </c>
       <c r="B133" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D133" t="s">
         <v>1</v>
@@ -6442,7 +6439,7 @@
         <v>690</v>
       </c>
       <c r="B134" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -6456,7 +6453,7 @@
         <v>691</v>
       </c>
       <c r="B135" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -6470,7 +6467,7 @@
         <v>692</v>
       </c>
       <c r="B136" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -6484,7 +6481,7 @@
         <v>693</v>
       </c>
       <c r="B137" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D137" t="s">
         <v>1</v>
@@ -6498,7 +6495,7 @@
         <v>694</v>
       </c>
       <c r="B138" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -6512,7 +6509,7 @@
         <v>695</v>
       </c>
       <c r="B139" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -6526,7 +6523,7 @@
         <v>696</v>
       </c>
       <c r="B140" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -6540,7 +6537,7 @@
         <v>697</v>
       </c>
       <c r="B141" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D141" t="s">
         <v>1</v>
@@ -6554,7 +6551,7 @@
         <v>698</v>
       </c>
       <c r="B142" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -6568,7 +6565,7 @@
         <v>699</v>
       </c>
       <c r="B143" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -6582,7 +6579,7 @@
         <v>700</v>
       </c>
       <c r="B144" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -6596,7 +6593,7 @@
         <v>701</v>
       </c>
       <c r="B145" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -6610,7 +6607,7 @@
         <v>702</v>
       </c>
       <c r="B146" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -6624,7 +6621,7 @@
         <v>703</v>
       </c>
       <c r="B147" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
@@ -6638,7 +6635,7 @@
         <v>704</v>
       </c>
       <c r="B148" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -6652,7 +6649,7 @@
         <v>705</v>
       </c>
       <c r="B149" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D149" t="s">
         <v>1</v>
@@ -6666,7 +6663,7 @@
         <v>706</v>
       </c>
       <c r="B150" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D150" t="s">
         <v>1</v>
@@ -6680,7 +6677,7 @@
         <v>707</v>
       </c>
       <c r="B151" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D151" t="s">
         <v>1</v>
@@ -6694,7 +6691,7 @@
         <v>708</v>
       </c>
       <c r="B152" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -6708,7 +6705,7 @@
         <v>709</v>
       </c>
       <c r="B153" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D153" t="s">
         <v>1</v>
@@ -6722,7 +6719,7 @@
         <v>710</v>
       </c>
       <c r="B154" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -6736,7 +6733,7 @@
         <v>711</v>
       </c>
       <c r="B155" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -6750,7 +6747,7 @@
         <v>712</v>
       </c>
       <c r="B156" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D156" t="s">
         <v>1</v>
@@ -6764,7 +6761,7 @@
         <v>713</v>
       </c>
       <c r="B157" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D157" t="s">
         <v>1</v>
@@ -6778,7 +6775,7 @@
         <v>714</v>
       </c>
       <c r="B158" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -6792,7 +6789,7 @@
         <v>715</v>
       </c>
       <c r="B159" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -6806,7 +6803,7 @@
         <v>716</v>
       </c>
       <c r="B160" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D160" t="s">
         <v>1</v>
@@ -6820,7 +6817,7 @@
         <v>717</v>
       </c>
       <c r="B161" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D161" t="s">
         <v>1</v>
@@ -6834,7 +6831,7 @@
         <v>718</v>
       </c>
       <c r="B162" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -6848,7 +6845,7 @@
         <v>719</v>
       </c>
       <c r="B163" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
@@ -6862,7 +6859,7 @@
         <v>720</v>
       </c>
       <c r="B164" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D164" t="s">
         <v>1</v>
@@ -6876,7 +6873,7 @@
         <v>721</v>
       </c>
       <c r="B165" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D165" t="s">
         <v>1</v>
@@ -6890,7 +6887,7 @@
         <v>722</v>
       </c>
       <c r="B166" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D166" t="s">
         <v>1</v>
@@ -6904,7 +6901,7 @@
         <v>723</v>
       </c>
       <c r="B167" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D167" t="s">
         <v>1</v>
@@ -6918,7 +6915,7 @@
         <v>724</v>
       </c>
       <c r="B168" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D168" t="s">
         <v>1</v>
@@ -6932,7 +6929,7 @@
         <v>725</v>
       </c>
       <c r="B169" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D169" t="s">
         <v>1</v>
@@ -6946,7 +6943,7 @@
         <v>726</v>
       </c>
       <c r="B170" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -6960,7 +6957,7 @@
         <v>727</v>
       </c>
       <c r="B171" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D171" t="s">
         <v>1</v>
@@ -6974,7 +6971,7 @@
         <v>728</v>
       </c>
       <c r="B172" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D172" t="s">
         <v>1</v>
@@ -6988,7 +6985,7 @@
         <v>729</v>
       </c>
       <c r="B173" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -7002,7 +6999,7 @@
         <v>730</v>
       </c>
       <c r="B174" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -7016,7 +7013,7 @@
         <v>731</v>
       </c>
       <c r="B175" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D175" t="s">
         <v>1</v>
@@ -7030,7 +7027,7 @@
         <v>732</v>
       </c>
       <c r="B176" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D176" t="s">
         <v>1</v>
@@ -7044,7 +7041,7 @@
         <v>733</v>
       </c>
       <c r="B177" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D177" t="s">
         <v>1</v>
@@ -7058,7 +7055,7 @@
         <v>734</v>
       </c>
       <c r="B178" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D178" t="s">
         <v>1</v>
@@ -7072,7 +7069,7 @@
         <v>735</v>
       </c>
       <c r="B179" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D179" t="s">
         <v>1</v>
@@ -7086,7 +7083,7 @@
         <v>736</v>
       </c>
       <c r="B180" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D180" t="s">
         <v>1</v>
@@ -7100,7 +7097,7 @@
         <v>737</v>
       </c>
       <c r="B181" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D181" t="s">
         <v>1</v>
@@ -7114,7 +7111,7 @@
         <v>738</v>
       </c>
       <c r="B182" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D182" t="s">
         <v>1</v>
@@ -7128,7 +7125,7 @@
         <v>739</v>
       </c>
       <c r="B183" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D183" t="s">
         <v>1</v>
@@ -7142,7 +7139,7 @@
         <v>740</v>
       </c>
       <c r="B184" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D184" t="s">
         <v>1</v>
@@ -7156,7 +7153,7 @@
         <v>741</v>
       </c>
       <c r="B185" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D185" t="s">
         <v>1</v>
@@ -7170,7 +7167,7 @@
         <v>742</v>
       </c>
       <c r="B186" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D186" t="s">
         <v>1</v>
@@ -7184,7 +7181,7 @@
         <v>743</v>
       </c>
       <c r="B187" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D187" t="s">
         <v>1</v>
@@ -7198,7 +7195,7 @@
         <v>744</v>
       </c>
       <c r="B188" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D188" t="s">
         <v>1</v>
@@ -7212,7 +7209,7 @@
         <v>745</v>
       </c>
       <c r="B189" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D189" t="s">
         <v>1</v>
@@ -7226,7 +7223,7 @@
         <v>746</v>
       </c>
       <c r="B190" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D190" t="s">
         <v>1</v>
@@ -7240,7 +7237,7 @@
         <v>747</v>
       </c>
       <c r="B191" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D191" t="s">
         <v>1</v>
@@ -7254,7 +7251,7 @@
         <v>748</v>
       </c>
       <c r="B192" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D192" t="s">
         <v>1</v>
@@ -7268,7 +7265,7 @@
         <v>749</v>
       </c>
       <c r="B193" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D193" t="s">
         <v>1</v>
@@ -7282,7 +7279,7 @@
         <v>750</v>
       </c>
       <c r="B194" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D194" t="s">
         <v>1</v>
@@ -7296,7 +7293,7 @@
         <v>751</v>
       </c>
       <c r="B195" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D195" t="s">
         <v>1</v>
@@ -7310,7 +7307,7 @@
         <v>752</v>
       </c>
       <c r="B196" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D196" t="s">
         <v>1</v>
@@ -7324,7 +7321,7 @@
         <v>753</v>
       </c>
       <c r="B197" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D197" t="s">
         <v>1</v>
@@ -7338,7 +7335,7 @@
         <v>754</v>
       </c>
       <c r="B198" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D198" t="s">
         <v>1</v>
@@ -7352,7 +7349,7 @@
         <v>755</v>
       </c>
       <c r="B199" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D199" t="s">
         <v>1</v>
@@ -7366,7 +7363,7 @@
         <v>756</v>
       </c>
       <c r="B200" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D200" t="s">
         <v>1</v>
@@ -7380,7 +7377,7 @@
         <v>757</v>
       </c>
       <c r="B201" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D201" t="s">
         <v>1</v>
@@ -7394,7 +7391,7 @@
         <v>758</v>
       </c>
       <c r="B202" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D202" t="s">
         <v>1</v>
@@ -7408,7 +7405,7 @@
         <v>759</v>
       </c>
       <c r="B203" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D203" t="s">
         <v>1</v>
@@ -7422,7 +7419,7 @@
         <v>760</v>
       </c>
       <c r="B204" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D204" t="s">
         <v>1</v>
@@ -7436,7 +7433,7 @@
         <v>761</v>
       </c>
       <c r="B205" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D205" t="s">
         <v>1</v>
@@ -7450,7 +7447,7 @@
         <v>762</v>
       </c>
       <c r="B206" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D206" t="s">
         <v>1</v>
@@ -7464,7 +7461,7 @@
         <v>763</v>
       </c>
       <c r="B207" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D207" t="s">
         <v>1</v>
@@ -7478,7 +7475,7 @@
         <v>764</v>
       </c>
       <c r="B208" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D208" t="s">
         <v>1</v>
@@ -7492,7 +7489,7 @@
         <v>765</v>
       </c>
       <c r="B209" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D209" t="s">
         <v>1</v>
@@ -7506,7 +7503,7 @@
         <v>766</v>
       </c>
       <c r="B210" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D210" t="s">
         <v>1</v>
@@ -7520,7 +7517,7 @@
         <v>767</v>
       </c>
       <c r="B211" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D211" t="s">
         <v>1</v>
@@ -7534,7 +7531,7 @@
         <v>768</v>
       </c>
       <c r="B212" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D212" t="s">
         <v>1</v>
@@ -7548,7 +7545,7 @@
         <v>769</v>
       </c>
       <c r="B213" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D213" t="s">
         <v>1</v>
@@ -7562,7 +7559,7 @@
         <v>770</v>
       </c>
       <c r="B214" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D214" t="s">
         <v>1</v>
@@ -7576,7 +7573,7 @@
         <v>771</v>
       </c>
       <c r="B215" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D215" t="s">
         <v>1</v>
@@ -7590,7 +7587,7 @@
         <v>772</v>
       </c>
       <c r="B216" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D216" t="s">
         <v>1</v>
@@ -7604,7 +7601,7 @@
         <v>773</v>
       </c>
       <c r="B217" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D217" t="s">
         <v>1</v>
@@ -7618,7 +7615,7 @@
         <v>774</v>
       </c>
       <c r="B218" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D218" t="s">
         <v>1</v>
@@ -7632,7 +7629,7 @@
         <v>775</v>
       </c>
       <c r="B219" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D219" t="s">
         <v>1</v>
@@ -7646,7 +7643,7 @@
         <v>776</v>
       </c>
       <c r="B220" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D220" t="s">
         <v>1</v>
@@ -7660,7 +7657,7 @@
         <v>777</v>
       </c>
       <c r="B221" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D221" t="s">
         <v>1</v>
@@ -7674,7 +7671,7 @@
         <v>778</v>
       </c>
       <c r="B222" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D222" t="s">
         <v>1</v>
@@ -7688,7 +7685,7 @@
         <v>779</v>
       </c>
       <c r="B223" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D223" t="s">
         <v>1</v>
@@ -7702,7 +7699,7 @@
         <v>780</v>
       </c>
       <c r="B224" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D224" t="s">
         <v>1</v>
@@ -7716,7 +7713,7 @@
         <v>781</v>
       </c>
       <c r="B225" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D225" t="s">
         <v>1</v>
@@ -7730,7 +7727,7 @@
         <v>782</v>
       </c>
       <c r="B226" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D226" t="s">
         <v>1</v>
@@ -7744,7 +7741,7 @@
         <v>783</v>
       </c>
       <c r="B227" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D227" t="s">
         <v>1</v>
@@ -7758,7 +7755,7 @@
         <v>784</v>
       </c>
       <c r="B228" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D228" t="s">
         <v>1</v>
@@ -7772,7 +7769,7 @@
         <v>785</v>
       </c>
       <c r="B229" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D229" t="s">
         <v>1</v>
@@ -7786,7 +7783,7 @@
         <v>786</v>
       </c>
       <c r="B230" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D230" t="s">
         <v>1</v>
@@ -7800,7 +7797,7 @@
         <v>787</v>
       </c>
       <c r="B231" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D231" t="s">
         <v>1</v>
@@ -7814,7 +7811,7 @@
         <v>788</v>
       </c>
       <c r="B232" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D232" t="s">
         <v>1</v>
@@ -7828,7 +7825,7 @@
         <v>789</v>
       </c>
       <c r="B233" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D233" t="s">
         <v>1</v>
@@ -7842,7 +7839,7 @@
         <v>790</v>
       </c>
       <c r="B234" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D234" t="s">
         <v>1</v>
@@ -7856,7 +7853,7 @@
         <v>791</v>
       </c>
       <c r="B235" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D235" t="s">
         <v>1</v>
@@ -7870,7 +7867,7 @@
         <v>792</v>
       </c>
       <c r="B236" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D236" t="s">
         <v>1</v>
@@ -7884,7 +7881,7 @@
         <v>793</v>
       </c>
       <c r="B237" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D237" t="s">
         <v>1</v>
@@ -7898,7 +7895,7 @@
         <v>794</v>
       </c>
       <c r="B238" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D238" t="s">
         <v>1</v>
@@ -7912,7 +7909,7 @@
         <v>795</v>
       </c>
       <c r="B239" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D239" t="s">
         <v>1</v>
@@ -7926,7 +7923,7 @@
         <v>796</v>
       </c>
       <c r="B240" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D240" t="s">
         <v>1</v>
@@ -7940,7 +7937,7 @@
         <v>797</v>
       </c>
       <c r="B241" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D241" t="s">
         <v>1</v>
@@ -7954,7 +7951,7 @@
         <v>798</v>
       </c>
       <c r="B242" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D242" t="s">
         <v>1</v>
@@ -7968,7 +7965,7 @@
         <v>799</v>
       </c>
       <c r="B243" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D243" t="s">
         <v>1</v>
@@ -7982,7 +7979,7 @@
         <v>800</v>
       </c>
       <c r="B244" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D244" t="s">
         <v>1</v>
@@ -7996,7 +7993,7 @@
         <v>801</v>
       </c>
       <c r="B245" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D245" t="s">
         <v>1</v>
@@ -8010,7 +8007,7 @@
         <v>802</v>
       </c>
       <c r="B246" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D246" t="s">
         <v>1</v>
@@ -8024,7 +8021,7 @@
         <v>803</v>
       </c>
       <c r="B247" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D247" t="s">
         <v>1</v>
@@ -8038,7 +8035,7 @@
         <v>804</v>
       </c>
       <c r="B248" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D248" t="s">
         <v>1</v>
@@ -8052,7 +8049,7 @@
         <v>805</v>
       </c>
       <c r="B249" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D249" t="s">
         <v>1</v>
@@ -8066,7 +8063,7 @@
         <v>806</v>
       </c>
       <c r="B250" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D250" t="s">
         <v>1</v>
@@ -8080,7 +8077,7 @@
         <v>807</v>
       </c>
       <c r="B251" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D251" t="s">
         <v>1</v>
@@ -8094,7 +8091,7 @@
         <v>808</v>
       </c>
       <c r="B252" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D252" t="s">
         <v>1</v>
@@ -8108,7 +8105,7 @@
         <v>809</v>
       </c>
       <c r="B253" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D253" t="s">
         <v>1</v>
@@ -8122,7 +8119,7 @@
         <v>810</v>
       </c>
       <c r="B254" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D254" t="s">
         <v>1</v>
@@ -8136,7 +8133,7 @@
         <v>811</v>
       </c>
       <c r="B255" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D255" t="s">
         <v>1</v>
@@ -8150,7 +8147,7 @@
         <v>812</v>
       </c>
       <c r="B256" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D256" t="s">
         <v>1</v>
@@ -8164,7 +8161,7 @@
         <v>813</v>
       </c>
       <c r="B257" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D257" t="s">
         <v>1</v>
@@ -8178,7 +8175,7 @@
         <v>814</v>
       </c>
       <c r="B258" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D258" t="s">
         <v>1</v>
@@ -8192,7 +8189,7 @@
         <v>815</v>
       </c>
       <c r="B259" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D259" t="s">
         <v>1</v>
@@ -8206,7 +8203,7 @@
         <v>816</v>
       </c>
       <c r="B260" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D260" t="s">
         <v>1</v>
@@ -8220,7 +8217,7 @@
         <v>817</v>
       </c>
       <c r="B261" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D261" t="s">
         <v>1</v>
@@ -8234,7 +8231,7 @@
         <v>818</v>
       </c>
       <c r="B262" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D262" t="s">
         <v>1</v>
@@ -8248,7 +8245,7 @@
         <v>819</v>
       </c>
       <c r="B263" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D263" t="s">
         <v>1</v>
@@ -8262,7 +8259,7 @@
         <v>820</v>
       </c>
       <c r="B264" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D264" t="s">
         <v>1</v>
@@ -8276,7 +8273,7 @@
         <v>821</v>
       </c>
       <c r="B265" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D265" t="s">
         <v>1</v>
@@ -8290,7 +8287,7 @@
         <v>822</v>
       </c>
       <c r="B266" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D266" t="s">
         <v>1</v>
@@ -8304,7 +8301,7 @@
         <v>823</v>
       </c>
       <c r="B267" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D267" t="s">
         <v>1</v>
@@ -8318,7 +8315,7 @@
         <v>824</v>
       </c>
       <c r="B268" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D268" t="s">
         <v>1</v>
@@ -8332,7 +8329,7 @@
         <v>825</v>
       </c>
       <c r="B269" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D269" t="s">
         <v>1</v>
@@ -8346,7 +8343,7 @@
         <v>826</v>
       </c>
       <c r="B270" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D270" t="s">
         <v>1</v>
@@ -8360,7 +8357,7 @@
         <v>827</v>
       </c>
       <c r="B271" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D271" t="s">
         <v>1</v>
@@ -8374,7 +8371,7 @@
         <v>828</v>
       </c>
       <c r="B272" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D272" t="s">
         <v>1</v>
@@ -8388,7 +8385,7 @@
         <v>829</v>
       </c>
       <c r="B273" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D273" t="s">
         <v>1</v>
@@ -8402,7 +8399,7 @@
         <v>830</v>
       </c>
       <c r="B274" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D274" t="s">
         <v>1</v>
@@ -8416,7 +8413,7 @@
         <v>831</v>
       </c>
       <c r="B275" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D275" t="s">
         <v>1</v>
@@ -8430,7 +8427,7 @@
         <v>832</v>
       </c>
       <c r="B276" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D276" t="s">
         <v>1</v>
@@ -8444,7 +8441,7 @@
         <v>833</v>
       </c>
       <c r="B277" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D277" t="s">
         <v>1</v>
@@ -8458,7 +8455,7 @@
         <v>834</v>
       </c>
       <c r="B278" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D278" t="s">
         <v>1</v>
@@ -8472,7 +8469,7 @@
         <v>835</v>
       </c>
       <c r="B279" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D279" t="s">
         <v>1</v>
@@ -8486,7 +8483,7 @@
         <v>836</v>
       </c>
       <c r="B280" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D280" t="s">
         <v>1</v>
@@ -8500,7 +8497,7 @@
         <v>837</v>
       </c>
       <c r="B281" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D281" t="s">
         <v>1</v>
@@ -8514,7 +8511,7 @@
         <v>838</v>
       </c>
       <c r="B282" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D282" t="s">
         <v>1</v>
@@ -8528,7 +8525,7 @@
         <v>839</v>
       </c>
       <c r="B283" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D283" t="s">
         <v>1</v>
@@ -8542,7 +8539,7 @@
         <v>840</v>
       </c>
       <c r="B284" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D284" t="s">
         <v>1</v>
@@ -8556,7 +8553,7 @@
         <v>841</v>
       </c>
       <c r="B285" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D285" t="s">
         <v>1</v>
@@ -8570,7 +8567,7 @@
         <v>842</v>
       </c>
       <c r="B286" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D286" t="s">
         <v>1</v>
@@ -8584,7 +8581,7 @@
         <v>843</v>
       </c>
       <c r="B287" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D287" t="s">
         <v>1</v>
@@ -8598,7 +8595,7 @@
         <v>844</v>
       </c>
       <c r="B288" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D288" t="s">
         <v>1</v>
@@ -8612,7 +8609,7 @@
         <v>845</v>
       </c>
       <c r="B289" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D289" t="s">
         <v>1</v>
@@ -8626,7 +8623,7 @@
         <v>846</v>
       </c>
       <c r="B290" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D290" t="s">
         <v>1</v>
@@ -8640,7 +8637,7 @@
         <v>847</v>
       </c>
       <c r="B291" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D291" t="s">
         <v>1</v>
@@ -8654,7 +8651,7 @@
         <v>848</v>
       </c>
       <c r="B292" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D292" t="s">
         <v>1</v>
@@ -8668,7 +8665,7 @@
         <v>849</v>
       </c>
       <c r="B293" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D293" t="s">
         <v>1</v>
@@ -8682,7 +8679,7 @@
         <v>850</v>
       </c>
       <c r="B294" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D294" t="s">
         <v>1</v>
@@ -8696,7 +8693,7 @@
         <v>851</v>
       </c>
       <c r="B295" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D295" t="s">
         <v>1</v>
@@ -8710,7 +8707,7 @@
         <v>852</v>
       </c>
       <c r="B296" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D296" t="s">
         <v>1</v>
@@ -8724,7 +8721,7 @@
         <v>853</v>
       </c>
       <c r="B297" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D297" t="s">
         <v>1</v>
@@ -8738,7 +8735,7 @@
         <v>854</v>
       </c>
       <c r="B298" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D298" t="s">
         <v>1</v>
@@ -8752,7 +8749,7 @@
         <v>855</v>
       </c>
       <c r="B299" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D299" t="s">
         <v>1</v>
@@ -8766,7 +8763,7 @@
         <v>856</v>
       </c>
       <c r="B300" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D300" t="s">
         <v>1</v>
@@ -8780,7 +8777,7 @@
         <v>857</v>
       </c>
       <c r="B301" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D301" t="s">
         <v>1</v>
@@ -8794,7 +8791,7 @@
         <v>858</v>
       </c>
       <c r="B302" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D302" t="s">
         <v>1</v>
@@ -8808,7 +8805,7 @@
         <v>859</v>
       </c>
       <c r="B303" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D303" t="s">
         <v>1</v>
@@ -8822,7 +8819,7 @@
         <v>860</v>
       </c>
       <c r="B304" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D304" t="s">
         <v>1</v>
@@ -8836,7 +8833,7 @@
         <v>861</v>
       </c>
       <c r="B305" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D305" t="s">
         <v>1</v>
@@ -8850,7 +8847,7 @@
         <v>862</v>
       </c>
       <c r="B306" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D306" t="s">
         <v>1</v>
@@ -8864,7 +8861,7 @@
         <v>863</v>
       </c>
       <c r="B307" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D307" t="s">
         <v>1</v>
@@ -8878,7 +8875,7 @@
         <v>864</v>
       </c>
       <c r="B308" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D308" t="s">
         <v>1</v>
@@ -8892,7 +8889,7 @@
         <v>865</v>
       </c>
       <c r="B309" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D309" t="s">
         <v>1</v>
@@ -8906,7 +8903,7 @@
         <v>866</v>
       </c>
       <c r="B310" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D310" t="s">
         <v>1</v>
@@ -8920,7 +8917,7 @@
         <v>867</v>
       </c>
       <c r="B311" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D311" t="s">
         <v>1</v>
@@ -8934,7 +8931,7 @@
         <v>868</v>
       </c>
       <c r="B312" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D312" t="s">
         <v>1</v>
@@ -8948,7 +8945,7 @@
         <v>869</v>
       </c>
       <c r="B313" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D313" t="s">
         <v>1</v>
@@ -8962,7 +8959,7 @@
         <v>870</v>
       </c>
       <c r="B314" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D314" t="s">
         <v>1</v>
@@ -8976,7 +8973,7 @@
         <v>871</v>
       </c>
       <c r="B315" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D315" t="s">
         <v>1</v>
@@ -8990,7 +8987,7 @@
         <v>872</v>
       </c>
       <c r="B316" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D316" t="s">
         <v>1</v>
@@ -9004,7 +9001,7 @@
         <v>873</v>
       </c>
       <c r="B317" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D317" t="s">
         <v>1</v>
@@ -9018,7 +9015,7 @@
         <v>874</v>
       </c>
       <c r="B318" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D318" t="s">
         <v>1</v>
@@ -9032,7 +9029,7 @@
         <v>875</v>
       </c>
       <c r="B319" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D319" t="s">
         <v>1</v>
@@ -9046,7 +9043,7 @@
         <v>876</v>
       </c>
       <c r="B320" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D320" t="s">
         <v>1</v>
@@ -9060,7 +9057,7 @@
         <v>877</v>
       </c>
       <c r="B321" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D321" t="s">
         <v>1</v>
@@ -9074,7 +9071,7 @@
         <v>878</v>
       </c>
       <c r="B322" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D322" t="s">
         <v>1</v>
@@ -9088,7 +9085,7 @@
         <v>879</v>
       </c>
       <c r="B323" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D323" t="s">
         <v>1</v>
@@ -9102,7 +9099,7 @@
         <v>880</v>
       </c>
       <c r="B324" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D324" t="s">
         <v>1</v>
@@ -9116,7 +9113,7 @@
         <v>881</v>
       </c>
       <c r="B325" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D325" t="s">
         <v>1</v>
@@ -9130,7 +9127,7 @@
         <v>882</v>
       </c>
       <c r="B326" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D326" t="s">
         <v>1</v>
@@ -9144,7 +9141,7 @@
         <v>883</v>
       </c>
       <c r="B327" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D327" t="s">
         <v>1</v>
@@ -9158,7 +9155,7 @@
         <v>884</v>
       </c>
       <c r="B328" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D328" t="s">
         <v>1</v>
@@ -9172,7 +9169,7 @@
         <v>885</v>
       </c>
       <c r="B329" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D329" t="s">
         <v>1</v>
@@ -9186,7 +9183,7 @@
         <v>886</v>
       </c>
       <c r="B330" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D330" t="s">
         <v>1</v>
@@ -9200,7 +9197,7 @@
         <v>887</v>
       </c>
       <c r="B331" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D331" t="s">
         <v>1</v>
@@ -9214,7 +9211,7 @@
         <v>888</v>
       </c>
       <c r="B332" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D332" t="s">
         <v>1</v>
@@ -9228,7 +9225,7 @@
         <v>889</v>
       </c>
       <c r="B333" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D333" t="s">
         <v>1</v>
@@ -9242,7 +9239,7 @@
         <v>890</v>
       </c>
       <c r="B334" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D334" t="s">
         <v>1</v>
@@ -9256,7 +9253,7 @@
         <v>891</v>
       </c>
       <c r="B335" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D335" t="s">
         <v>1</v>
@@ -9270,7 +9267,7 @@
         <v>892</v>
       </c>
       <c r="B336" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D336" t="s">
         <v>1</v>
@@ -9284,7 +9281,7 @@
         <v>893</v>
       </c>
       <c r="B337" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D337" t="s">
         <v>1</v>
@@ -9298,7 +9295,7 @@
         <v>894</v>
       </c>
       <c r="B338" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D338" t="s">
         <v>1</v>
@@ -9312,7 +9309,7 @@
         <v>895</v>
       </c>
       <c r="B339" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D339" t="s">
         <v>1</v>
@@ -9326,7 +9323,7 @@
         <v>896</v>
       </c>
       <c r="B340" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D340" t="s">
         <v>1</v>
@@ -9340,7 +9337,7 @@
         <v>897</v>
       </c>
       <c r="B341" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D341" t="s">
         <v>1</v>
@@ -9354,7 +9351,7 @@
         <v>898</v>
       </c>
       <c r="B342" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D342" t="s">
         <v>1</v>
@@ -9368,7 +9365,7 @@
         <v>899</v>
       </c>
       <c r="B343" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D343" t="s">
         <v>1</v>
@@ -9382,7 +9379,7 @@
         <v>900</v>
       </c>
       <c r="B344" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D344" t="s">
         <v>1</v>
@@ -9396,7 +9393,7 @@
         <v>901</v>
       </c>
       <c r="B345" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D345" t="s">
         <v>1</v>
@@ -9410,7 +9407,7 @@
         <v>902</v>
       </c>
       <c r="B346" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D346" t="s">
         <v>1</v>
@@ -9424,7 +9421,7 @@
         <v>903</v>
       </c>
       <c r="B347" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D347" t="s">
         <v>1</v>
@@ -9438,7 +9435,7 @@
         <v>904</v>
       </c>
       <c r="B348" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D348" t="s">
         <v>1</v>
@@ -9452,7 +9449,7 @@
         <v>905</v>
       </c>
       <c r="B349" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D349" t="s">
         <v>1</v>
@@ -9466,7 +9463,7 @@
         <v>906</v>
       </c>
       <c r="B350" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D350" t="s">
         <v>1</v>
@@ -9480,7 +9477,7 @@
         <v>907</v>
       </c>
       <c r="B351" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D351" t="s">
         <v>1</v>
@@ -9494,7 +9491,7 @@
         <v>908</v>
       </c>
       <c r="B352" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D352" t="s">
         <v>1</v>
@@ -9508,7 +9505,7 @@
         <v>909</v>
       </c>
       <c r="B353" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D353" t="s">
         <v>1</v>
@@ -9522,7 +9519,7 @@
         <v>910</v>
       </c>
       <c r="B354" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D354" t="s">
         <v>1</v>
@@ -9536,7 +9533,7 @@
         <v>911</v>
       </c>
       <c r="B355" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D355" t="s">
         <v>1</v>
@@ -9550,7 +9547,7 @@
         <v>912</v>
       </c>
       <c r="B356" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D356" t="s">
         <v>1</v>
@@ -9564,7 +9561,7 @@
         <v>913</v>
       </c>
       <c r="B357" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D357" t="s">
         <v>1</v>
@@ -9578,7 +9575,7 @@
         <v>914</v>
       </c>
       <c r="B358" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D358" t="s">
         <v>1</v>
@@ -9592,7 +9589,7 @@
         <v>915</v>
       </c>
       <c r="B359" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D359" t="s">
         <v>1</v>
@@ -9606,7 +9603,7 @@
         <v>916</v>
       </c>
       <c r="B360" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D360" t="s">
         <v>1</v>
@@ -9620,7 +9617,7 @@
         <v>917</v>
       </c>
       <c r="B361" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D361" t="s">
         <v>1</v>
@@ -9634,7 +9631,7 @@
         <v>918</v>
       </c>
       <c r="B362" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D362" t="s">
         <v>1</v>
@@ -9648,7 +9645,7 @@
         <v>919</v>
       </c>
       <c r="B363" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D363" t="s">
         <v>1</v>
@@ -9662,7 +9659,7 @@
         <v>920</v>
       </c>
       <c r="B364" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D364" t="s">
         <v>1</v>
@@ -9676,7 +9673,7 @@
         <v>921</v>
       </c>
       <c r="B365" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D365" t="s">
         <v>1</v>
@@ -9690,7 +9687,7 @@
         <v>922</v>
       </c>
       <c r="B366" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D366" t="s">
         <v>1</v>
@@ -9704,7 +9701,7 @@
         <v>923</v>
       </c>
       <c r="B367" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D367" t="s">
         <v>1</v>
@@ -9718,7 +9715,7 @@
         <v>924</v>
       </c>
       <c r="B368" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D368" t="s">
         <v>1</v>
@@ -9732,7 +9729,7 @@
         <v>925</v>
       </c>
       <c r="B369" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D369" t="s">
         <v>1</v>
@@ -9746,7 +9743,7 @@
         <v>926</v>
       </c>
       <c r="B370" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D370" t="s">
         <v>1</v>
@@ -9760,7 +9757,7 @@
         <v>927</v>
       </c>
       <c r="B371" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D371" t="s">
         <v>1</v>
@@ -9774,7 +9771,7 @@
         <v>928</v>
       </c>
       <c r="B372" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D372" t="s">
         <v>1</v>
@@ -9788,7 +9785,7 @@
         <v>929</v>
       </c>
       <c r="B373" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D373" t="s">
         <v>1</v>
@@ -9802,7 +9799,7 @@
         <v>930</v>
       </c>
       <c r="B374" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D374" t="s">
         <v>1</v>
@@ -9816,7 +9813,7 @@
         <v>931</v>
       </c>
       <c r="B375" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D375" t="s">
         <v>1</v>
@@ -9830,7 +9827,7 @@
         <v>932</v>
       </c>
       <c r="B376" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D376" t="s">
         <v>1</v>
@@ -9844,7 +9841,7 @@
         <v>933</v>
       </c>
       <c r="B377" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D377" t="s">
         <v>1</v>
@@ -9858,7 +9855,7 @@
         <v>934</v>
       </c>
       <c r="B378" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D378" t="s">
         <v>1</v>
@@ -9872,7 +9869,7 @@
         <v>935</v>
       </c>
       <c r="B379" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D379" t="s">
         <v>1</v>
@@ -9886,7 +9883,7 @@
         <v>936</v>
       </c>
       <c r="B380" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D380" t="s">
         <v>1</v>
@@ -9900,7 +9897,7 @@
         <v>937</v>
       </c>
       <c r="B381" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D381" t="s">
         <v>1</v>
@@ -9914,7 +9911,7 @@
         <v>938</v>
       </c>
       <c r="B382" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D382" t="s">
         <v>1</v>
@@ -9928,7 +9925,7 @@
         <v>939</v>
       </c>
       <c r="B383" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D383" t="s">
         <v>1</v>
@@ -9942,7 +9939,7 @@
         <v>940</v>
       </c>
       <c r="B384" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D384" t="s">
         <v>1</v>
@@ -9956,7 +9953,7 @@
         <v>941</v>
       </c>
       <c r="B385" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D385" t="s">
         <v>1</v>
@@ -9970,7 +9967,7 @@
         <v>942</v>
       </c>
       <c r="B386" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D386" t="s">
         <v>1</v>
@@ -9984,7 +9981,7 @@
         <v>943</v>
       </c>
       <c r="B387" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D387" t="s">
         <v>1</v>
@@ -9998,7 +9995,7 @@
         <v>944</v>
       </c>
       <c r="B388" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D388" t="s">
         <v>1</v>
@@ -10012,7 +10009,7 @@
         <v>945</v>
       </c>
       <c r="B389" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D389" t="s">
         <v>1</v>
@@ -10026,7 +10023,7 @@
         <v>946</v>
       </c>
       <c r="B390" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D390" t="s">
         <v>1</v>
@@ -10040,7 +10037,7 @@
         <v>947</v>
       </c>
       <c r="B391" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D391" t="s">
         <v>1</v>
@@ -10054,7 +10051,7 @@
         <v>948</v>
       </c>
       <c r="B392" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D392" t="s">
         <v>1</v>
@@ -10068,7 +10065,7 @@
         <v>949</v>
       </c>
       <c r="B393" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D393" t="s">
         <v>1</v>
@@ -10082,7 +10079,7 @@
         <v>950</v>
       </c>
       <c r="B394" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D394" t="s">
         <v>1</v>
@@ -10096,7 +10093,7 @@
         <v>951</v>
       </c>
       <c r="B395" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D395" t="s">
         <v>1</v>
@@ -10110,7 +10107,7 @@
         <v>952</v>
       </c>
       <c r="B396" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D396" t="s">
         <v>1</v>
@@ -10124,7 +10121,7 @@
         <v>953</v>
       </c>
       <c r="B397" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D397" t="s">
         <v>1</v>
@@ -10138,7 +10135,7 @@
         <v>954</v>
       </c>
       <c r="B398" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D398" t="s">
         <v>1</v>
@@ -10152,7 +10149,7 @@
         <v>955</v>
       </c>
       <c r="B399" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D399" t="s">
         <v>1</v>
@@ -10166,7 +10163,7 @@
         <v>956</v>
       </c>
       <c r="B400" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D400" t="s">
         <v>1</v>
@@ -10180,7 +10177,7 @@
         <v>957</v>
       </c>
       <c r="B401" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D401" t="s">
         <v>1</v>
@@ -10194,7 +10191,7 @@
         <v>958</v>
       </c>
       <c r="B402" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D402" t="s">
         <v>1</v>
@@ -10208,7 +10205,7 @@
         <v>959</v>
       </c>
       <c r="B403" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D403" t="s">
         <v>1</v>
@@ -10222,7 +10219,7 @@
         <v>960</v>
       </c>
       <c r="B404" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D404" t="s">
         <v>1</v>
@@ -10236,7 +10233,7 @@
         <v>961</v>
       </c>
       <c r="B405" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D405" t="s">
         <v>1</v>
@@ -10250,7 +10247,7 @@
         <v>962</v>
       </c>
       <c r="B406" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D406" t="s">
         <v>1</v>
@@ -10264,7 +10261,7 @@
         <v>963</v>
       </c>
       <c r="B407" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D407" t="s">
         <v>1</v>
@@ -10278,7 +10275,7 @@
         <v>964</v>
       </c>
       <c r="B408" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D408" t="s">
         <v>1</v>
@@ -10292,7 +10289,7 @@
         <v>965</v>
       </c>
       <c r="B409" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D409" t="s">
         <v>1</v>
@@ -10306,7 +10303,7 @@
         <v>966</v>
       </c>
       <c r="B410" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D410" t="s">
         <v>1</v>
@@ -10320,7 +10317,7 @@
         <v>967</v>
       </c>
       <c r="B411" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D411" t="s">
         <v>1</v>
@@ -10334,7 +10331,7 @@
         <v>968</v>
       </c>
       <c r="B412" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D412" t="s">
         <v>1</v>
@@ -10348,7 +10345,7 @@
         <v>969</v>
       </c>
       <c r="B413" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D413" t="s">
         <v>1</v>
@@ -10362,7 +10359,7 @@
         <v>970</v>
       </c>
       <c r="B414" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D414" t="s">
         <v>1</v>
@@ -10376,7 +10373,7 @@
         <v>971</v>
       </c>
       <c r="B415" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D415" t="s">
         <v>1</v>
@@ -10390,7 +10387,7 @@
         <v>972</v>
       </c>
       <c r="B416" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D416" t="s">
         <v>1</v>
@@ -10404,7 +10401,7 @@
         <v>973</v>
       </c>
       <c r="B417" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D417" t="s">
         <v>1</v>
@@ -10418,7 +10415,7 @@
         <v>974</v>
       </c>
       <c r="B418" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D418" t="s">
         <v>1</v>
@@ -10432,7 +10429,7 @@
         <v>975</v>
       </c>
       <c r="B419" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D419" t="s">
         <v>1</v>
@@ -10446,7 +10443,7 @@
         <v>976</v>
       </c>
       <c r="B420" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D420" t="s">
         <v>1</v>
@@ -10460,7 +10457,7 @@
         <v>977</v>
       </c>
       <c r="B421" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D421" t="s">
         <v>1</v>
@@ -10474,7 +10471,7 @@
         <v>978</v>
       </c>
       <c r="B422" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D422" t="s">
         <v>1</v>
@@ -10488,7 +10485,7 @@
         <v>979</v>
       </c>
       <c r="B423" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D423" t="s">
         <v>1</v>
@@ -10502,7 +10499,7 @@
         <v>980</v>
       </c>
       <c r="B424" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D424" t="s">
         <v>1</v>
@@ -10516,7 +10513,7 @@
         <v>981</v>
       </c>
       <c r="B425" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D425" t="s">
         <v>1</v>
@@ -10530,7 +10527,7 @@
         <v>982</v>
       </c>
       <c r="B426" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D426" t="s">
         <v>1</v>
@@ -10544,7 +10541,7 @@
         <v>983</v>
       </c>
       <c r="B427" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D427" t="s">
         <v>1</v>
@@ -10558,7 +10555,7 @@
         <v>984</v>
       </c>
       <c r="B428" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D428" t="s">
         <v>1</v>
@@ -10572,7 +10569,7 @@
         <v>985</v>
       </c>
       <c r="B429" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D429" t="s">
         <v>1</v>
@@ -10586,7 +10583,7 @@
         <v>986</v>
       </c>
       <c r="B430" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D430" t="s">
         <v>1</v>
@@ -10600,7 +10597,7 @@
         <v>987</v>
       </c>
       <c r="B431" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D431" t="s">
         <v>1</v>
@@ -10614,7 +10611,7 @@
         <v>988</v>
       </c>
       <c r="B432" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D432" t="s">
         <v>1</v>
@@ -10628,7 +10625,7 @@
         <v>989</v>
       </c>
       <c r="B433" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D433" t="s">
         <v>1</v>
@@ -10642,7 +10639,7 @@
         <v>990</v>
       </c>
       <c r="B434" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D434" t="s">
         <v>1</v>
@@ -10656,7 +10653,7 @@
         <v>991</v>
       </c>
       <c r="B435" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D435" t="s">
         <v>1</v>
@@ -10670,7 +10667,7 @@
         <v>992</v>
       </c>
       <c r="B436" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D436" t="s">
         <v>1</v>
@@ -10684,7 +10681,7 @@
         <v>993</v>
       </c>
       <c r="B437" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D437" t="s">
         <v>1</v>
@@ -10698,7 +10695,7 @@
         <v>994</v>
       </c>
       <c r="B438" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D438" t="s">
         <v>1</v>
@@ -10712,7 +10709,7 @@
         <v>995</v>
       </c>
       <c r="B439" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D439" t="s">
         <v>1</v>
@@ -10726,7 +10723,7 @@
         <v>996</v>
       </c>
       <c r="B440" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D440" t="s">
         <v>1</v>
@@ -10740,7 +10737,7 @@
         <v>997</v>
       </c>
       <c r="B441" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D441" t="s">
         <v>1</v>
@@ -10754,7 +10751,7 @@
         <v>998</v>
       </c>
       <c r="B442" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D442" t="s">
         <v>1</v>
@@ -10768,7 +10765,7 @@
         <v>999</v>
       </c>
       <c r="B443" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D443" t="s">
         <v>1</v>
@@ -10782,7 +10779,7 @@
         <v>1000</v>
       </c>
       <c r="B444" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D444" t="s">
         <v>1</v>
@@ -10796,7 +10793,7 @@
         <v>1001</v>
       </c>
       <c r="B445" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D445" t="s">
         <v>1</v>
@@ -10810,7 +10807,7 @@
         <v>1002</v>
       </c>
       <c r="B446" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D446" t="s">
         <v>1</v>
@@ -10824,7 +10821,7 @@
         <v>1003</v>
       </c>
       <c r="B447" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D447" t="s">
         <v>1</v>
@@ -10838,7 +10835,7 @@
         <v>1004</v>
       </c>
       <c r="B448" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D448" t="s">
         <v>1</v>
@@ -10852,7 +10849,7 @@
         <v>1005</v>
       </c>
       <c r="B449" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D449" t="s">
         <v>1</v>
@@ -10866,7 +10863,7 @@
         <v>1006</v>
       </c>
       <c r="B450" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D450" t="s">
         <v>1</v>
@@ -10880,7 +10877,7 @@
         <v>1007</v>
       </c>
       <c r="B451" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D451" t="s">
         <v>1</v>
@@ -10894,7 +10891,7 @@
         <v>1008</v>
       </c>
       <c r="B452" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D452" t="s">
         <v>1</v>
@@ -10908,7 +10905,7 @@
         <v>1009</v>
       </c>
       <c r="B453" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D453" t="s">
         <v>1</v>
@@ -10922,7 +10919,7 @@
         <v>1010</v>
       </c>
       <c r="B454" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D454" t="s">
         <v>1</v>
@@ -10936,7 +10933,7 @@
         <v>1011</v>
       </c>
       <c r="B455" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D455" t="s">
         <v>1</v>
@@ -10950,7 +10947,7 @@
         <v>1012</v>
       </c>
       <c r="B456" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D456" t="s">
         <v>1</v>
@@ -10964,7 +10961,7 @@
         <v>1013</v>
       </c>
       <c r="B457" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D457" t="s">
         <v>1</v>
@@ -10978,7 +10975,7 @@
         <v>1014</v>
       </c>
       <c r="B458" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D458" t="s">
         <v>1</v>
@@ -10992,7 +10989,7 @@
         <v>1015</v>
       </c>
       <c r="B459" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D459" t="s">
         <v>1</v>
@@ -11006,7 +11003,7 @@
         <v>1016</v>
       </c>
       <c r="B460" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D460" t="s">
         <v>1</v>
@@ -11020,7 +11017,7 @@
         <v>1017</v>
       </c>
       <c r="B461" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D461" t="s">
         <v>1</v>
@@ -11034,7 +11031,7 @@
         <v>1018</v>
       </c>
       <c r="B462" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D462" t="s">
         <v>1</v>
@@ -11048,7 +11045,7 @@
         <v>1019</v>
       </c>
       <c r="B463" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D463" t="s">
         <v>1</v>
@@ -11062,7 +11059,7 @@
         <v>1020</v>
       </c>
       <c r="B464" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D464" t="s">
         <v>1</v>
@@ -11076,7 +11073,7 @@
         <v>1021</v>
       </c>
       <c r="B465" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D465" t="s">
         <v>1</v>
@@ -11090,7 +11087,7 @@
         <v>1022</v>
       </c>
       <c r="B466" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D466" t="s">
         <v>1</v>
@@ -11104,7 +11101,7 @@
         <v>1023</v>
       </c>
       <c r="B467" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D467" t="s">
         <v>1</v>
@@ -11118,7 +11115,7 @@
         <v>1024</v>
       </c>
       <c r="B468" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D468" t="s">
         <v>1</v>
@@ -11132,7 +11129,7 @@
         <v>1025</v>
       </c>
       <c r="B469" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D469" t="s">
         <v>1</v>
@@ -11146,7 +11143,7 @@
         <v>1026</v>
       </c>
       <c r="B470" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D470" t="s">
         <v>1</v>
@@ -11160,7 +11157,7 @@
         <v>1027</v>
       </c>
       <c r="B471" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D471" t="s">
         <v>1</v>
@@ -11174,7 +11171,7 @@
         <v>1028</v>
       </c>
       <c r="B472" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D472" t="s">
         <v>1</v>
@@ -11188,7 +11185,7 @@
         <v>1029</v>
       </c>
       <c r="B473" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D473" t="s">
         <v>1</v>
@@ -11202,7 +11199,7 @@
         <v>1030</v>
       </c>
       <c r="B474" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D474" t="s">
         <v>1</v>
@@ -11216,7 +11213,7 @@
         <v>1031</v>
       </c>
       <c r="B475" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D475" t="s">
         <v>1</v>
@@ -11230,7 +11227,7 @@
         <v>1032</v>
       </c>
       <c r="B476" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D476" t="s">
         <v>1</v>
@@ -11244,7 +11241,7 @@
         <v>1033</v>
       </c>
       <c r="B477" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D477" t="s">
         <v>1</v>
@@ -11258,7 +11255,7 @@
         <v>1034</v>
       </c>
       <c r="B478" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D478" t="s">
         <v>1</v>
@@ -11272,7 +11269,7 @@
         <v>1035</v>
       </c>
       <c r="B479" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D479" t="s">
         <v>1</v>
@@ -11286,7 +11283,7 @@
         <v>1036</v>
       </c>
       <c r="B480" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D480" t="s">
         <v>1</v>
@@ -11300,7 +11297,7 @@
         <v>1037</v>
       </c>
       <c r="B481" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D481" t="s">
         <v>1</v>
@@ -11314,7 +11311,7 @@
         <v>1038</v>
       </c>
       <c r="B482" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D482" t="s">
         <v>1</v>
@@ -11328,7 +11325,7 @@
         <v>1039</v>
       </c>
       <c r="B483" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D483" t="s">
         <v>1</v>
@@ -11342,7 +11339,7 @@
         <v>1040</v>
       </c>
       <c r="B484" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D484" t="s">
         <v>1</v>
@@ -11356,7 +11353,7 @@
         <v>1041</v>
       </c>
       <c r="B485" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D485" t="s">
         <v>1</v>
@@ -11370,7 +11367,7 @@
         <v>1042</v>
       </c>
       <c r="B486" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D486" t="s">
         <v>1</v>
@@ -11384,7 +11381,7 @@
         <v>1043</v>
       </c>
       <c r="B487" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D487" t="s">
         <v>1</v>
@@ -11398,7 +11395,7 @@
         <v>1044</v>
       </c>
       <c r="B488" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D488" t="s">
         <v>1</v>
@@ -11412,7 +11409,7 @@
         <v>1045</v>
       </c>
       <c r="B489" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D489" t="s">
         <v>1</v>
@@ -11426,7 +11423,7 @@
         <v>1046</v>
       </c>
       <c r="B490" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D490" t="s">
         <v>1</v>
@@ -11440,7 +11437,7 @@
         <v>1047</v>
       </c>
       <c r="B491" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D491" t="s">
         <v>1</v>
@@ -11454,7 +11451,7 @@
         <v>1048</v>
       </c>
       <c r="B492" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D492" t="s">
         <v>1</v>
@@ -11468,7 +11465,7 @@
         <v>1049</v>
       </c>
       <c r="B493" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D493" t="s">
         <v>1</v>
@@ -11482,7 +11479,7 @@
         <v>1050</v>
       </c>
       <c r="B494" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D494" t="s">
         <v>1</v>
@@ -11496,7 +11493,7 @@
         <v>1051</v>
       </c>
       <c r="B495" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D495" t="s">
         <v>1</v>
@@ -11510,7 +11507,7 @@
         <v>1052</v>
       </c>
       <c r="B496" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D496" t="s">
         <v>1</v>
@@ -11524,7 +11521,7 @@
         <v>1053</v>
       </c>
       <c r="B497" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D497" t="s">
         <v>1</v>
@@ -11538,7 +11535,7 @@
         <v>1054</v>
       </c>
       <c r="B498" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D498" t="s">
         <v>1</v>
@@ -11552,7 +11549,7 @@
         <v>1055</v>
       </c>
       <c r="B499" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D499" t="s">
         <v>1</v>
@@ -11566,7 +11563,7 @@
         <v>1056</v>
       </c>
       <c r="B500" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D500" t="s">
         <v>1</v>
@@ -11580,7 +11577,7 @@
         <v>1057</v>
       </c>
       <c r="B501" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D501" t="s">
         <v>1</v>
@@ -11594,7 +11591,7 @@
         <v>1058</v>
       </c>
       <c r="B502" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D502" t="s">
         <v>1</v>
@@ -11608,7 +11605,7 @@
         <v>1059</v>
       </c>
       <c r="B503" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D503" t="s">
         <v>1</v>
@@ -11622,7 +11619,7 @@
         <v>1060</v>
       </c>
       <c r="B504" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D504" t="s">
         <v>1</v>
@@ -11636,7 +11633,7 @@
         <v>1061</v>
       </c>
       <c r="B505" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D505" t="s">
         <v>1</v>
@@ -11650,7 +11647,7 @@
         <v>1062</v>
       </c>
       <c r="B506" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D506" t="s">
         <v>1</v>
@@ -11664,7 +11661,7 @@
         <v>1063</v>
       </c>
       <c r="B507" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D507" t="s">
         <v>1</v>
@@ -11678,7 +11675,7 @@
         <v>1064</v>
       </c>
       <c r="B508" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D508" t="s">
         <v>1</v>
@@ -11692,7 +11689,7 @@
         <v>1065</v>
       </c>
       <c r="B509" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D509" t="s">
         <v>1</v>
@@ -11706,7 +11703,7 @@
         <v>1066</v>
       </c>
       <c r="B510" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D510" t="s">
         <v>1</v>
@@ -11720,7 +11717,7 @@
         <v>1067</v>
       </c>
       <c r="B511" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D511" t="s">
         <v>1</v>
@@ -11734,7 +11731,7 @@
         <v>1068</v>
       </c>
       <c r="B512" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D512" t="s">
         <v>1</v>
@@ -11748,7 +11745,7 @@
         <v>1069</v>
       </c>
       <c r="B513" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D513" t="s">
         <v>1</v>
@@ -11762,7 +11759,7 @@
         <v>1070</v>
       </c>
       <c r="B514" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D514" t="s">
         <v>1</v>
@@ -11776,7 +11773,7 @@
         <v>1071</v>
       </c>
       <c r="B515" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D515" t="s">
         <v>1</v>
@@ -11790,7 +11787,7 @@
         <v>1072</v>
       </c>
       <c r="B516" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D516" t="s">
         <v>1</v>
@@ -11804,7 +11801,7 @@
         <v>1073</v>
       </c>
       <c r="B517" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D517" t="s">
         <v>1</v>
@@ -11818,7 +11815,7 @@
         <v>1074</v>
       </c>
       <c r="B518" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D518" t="s">
         <v>1</v>
@@ -11832,7 +11829,7 @@
         <v>1075</v>
       </c>
       <c r="B519" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D519" t="s">
         <v>1</v>
@@ -11846,7 +11843,7 @@
         <v>1076</v>
       </c>
       <c r="B520" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D520" t="s">
         <v>1</v>
@@ -11860,7 +11857,7 @@
         <v>1077</v>
       </c>
       <c r="B521" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D521" t="s">
         <v>1</v>
@@ -11874,7 +11871,7 @@
         <v>1078</v>
       </c>
       <c r="B522" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D522" t="s">
         <v>1</v>
@@ -11888,7 +11885,7 @@
         <v>1079</v>
       </c>
       <c r="B523" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D523" t="s">
         <v>1</v>
@@ -11902,7 +11899,7 @@
         <v>1080</v>
       </c>
       <c r="B524" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D524" t="s">
         <v>1</v>
@@ -11916,7 +11913,7 @@
         <v>1081</v>
       </c>
       <c r="B525" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D525" t="s">
         <v>1</v>
@@ -11930,7 +11927,7 @@
         <v>1082</v>
       </c>
       <c r="B526" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D526" t="s">
         <v>1</v>
@@ -11944,7 +11941,7 @@
         <v>1083</v>
       </c>
       <c r="B527" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D527" t="s">
         <v>1</v>
@@ -11958,7 +11955,7 @@
         <v>1084</v>
       </c>
       <c r="B528" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D528" t="s">
         <v>1</v>
@@ -11972,7 +11969,7 @@
         <v>1085</v>
       </c>
       <c r="B529" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D529" t="s">
         <v>1</v>
@@ -11986,7 +11983,7 @@
         <v>1086</v>
       </c>
       <c r="B530" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D530" t="s">
         <v>1</v>
@@ -12000,7 +11997,7 @@
         <v>1087</v>
       </c>
       <c r="B531" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D531" t="s">
         <v>1</v>
@@ -12014,7 +12011,7 @@
         <v>1088</v>
       </c>
       <c r="B532" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D532" t="s">
         <v>1</v>
@@ -12028,7 +12025,7 @@
         <v>1089</v>
       </c>
       <c r="B533" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D533" t="s">
         <v>1</v>
@@ -12042,7 +12039,7 @@
         <v>1090</v>
       </c>
       <c r="B534" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D534" t="s">
         <v>1</v>
@@ -12056,7 +12053,7 @@
         <v>1091</v>
       </c>
       <c r="B535" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D535" t="s">
         <v>1</v>
@@ -12070,7 +12067,7 @@
         <v>1092</v>
       </c>
       <c r="B536" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D536" t="s">
         <v>1</v>
@@ -12084,7 +12081,7 @@
         <v>1093</v>
       </c>
       <c r="B537" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D537" t="s">
         <v>1</v>
@@ -12098,7 +12095,7 @@
         <v>1094</v>
       </c>
       <c r="B538" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D538" t="s">
         <v>1</v>
@@ -12112,7 +12109,7 @@
         <v>1095</v>
       </c>
       <c r="B539" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D539" t="s">
         <v>1</v>
@@ -12126,7 +12123,7 @@
         <v>1096</v>
       </c>
       <c r="B540" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D540" t="s">
         <v>1</v>
@@ -12140,7 +12137,7 @@
         <v>1097</v>
       </c>
       <c r="B541" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D541" t="s">
         <v>1</v>
@@ -12154,7 +12151,7 @@
         <v>1098</v>
       </c>
       <c r="B542" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D542" t="s">
         <v>1</v>
@@ -12168,7 +12165,7 @@
         <v>1099</v>
       </c>
       <c r="B543" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D543" t="s">
         <v>1</v>
@@ -12182,7 +12179,7 @@
         <v>1100</v>
       </c>
       <c r="B544" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D544" t="s">
         <v>1</v>
@@ -12196,7 +12193,7 @@
         <v>1101</v>
       </c>
       <c r="B545" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D545" t="s">
         <v>1</v>
@@ -12210,7 +12207,7 @@
         <v>1102</v>
       </c>
       <c r="B546" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D546" t="s">
         <v>1</v>
@@ -12224,7 +12221,7 @@
         <v>1103</v>
       </c>
       <c r="B547" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D547" t="s">
         <v>1</v>
@@ -12238,7 +12235,7 @@
         <v>1104</v>
       </c>
       <c r="B548" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D548" t="s">
         <v>1</v>
@@ -12252,7 +12249,7 @@
         <v>1105</v>
       </c>
       <c r="B549" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D549" t="s">
         <v>1</v>
@@ -12266,7 +12263,7 @@
         <v>1106</v>
       </c>
       <c r="B550" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D550" t="s">
         <v>1</v>
@@ -12280,7 +12277,7 @@
         <v>1107</v>
       </c>
       <c r="B551" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D551" t="s">
         <v>1</v>
@@ -12294,7 +12291,7 @@
         <v>1108</v>
       </c>
       <c r="B552" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D552" t="s">
         <v>1</v>
@@ -12308,7 +12305,7 @@
         <v>1109</v>
       </c>
       <c r="B553" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D553" t="s">
         <v>1</v>
@@ -12322,7 +12319,7 @@
         <v>1110</v>
       </c>
       <c r="B554" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D554" t="s">
         <v>1</v>
@@ -12336,7 +12333,7 @@
         <v>1111</v>
       </c>
       <c r="B555" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D555" t="s">
         <v>1</v>
@@ -12350,7 +12347,7 @@
         <v>1112</v>
       </c>
       <c r="B556" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D556" t="s">
         <v>1</v>
@@ -12364,7 +12361,7 @@
         <v>1113</v>
       </c>
       <c r="B557" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D557" t="s">
         <v>1</v>
@@ -12378,7 +12375,7 @@
         <v>1114</v>
       </c>
       <c r="B558" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D558" t="s">
         <v>1</v>
@@ -12392,7 +12389,7 @@
         <v>1115</v>
       </c>
       <c r="B559" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D559" t="s">
         <v>1</v>
@@ -12406,7 +12403,7 @@
         <v>1116</v>
       </c>
       <c r="B560" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D560" t="s">
         <v>1</v>
@@ -12420,7 +12417,7 @@
         <v>1117</v>
       </c>
       <c r="B561" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D561" t="s">
         <v>1</v>
@@ -12434,7 +12431,7 @@
         <v>1118</v>
       </c>
       <c r="B562" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D562" t="s">
         <v>1</v>
@@ -12448,7 +12445,7 @@
         <v>1119</v>
       </c>
       <c r="B563" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D563" t="s">
         <v>1</v>
@@ -12462,7 +12459,7 @@
         <v>1120</v>
       </c>
       <c r="B564" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D564" t="s">
         <v>1</v>
@@ -12476,7 +12473,7 @@
         <v>1121</v>
       </c>
       <c r="B565" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D565" t="s">
         <v>1</v>
@@ -12490,7 +12487,7 @@
         <v>1122</v>
       </c>
       <c r="B566" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D566" t="s">
         <v>1</v>
@@ -12504,7 +12501,7 @@
         <v>1123</v>
       </c>
       <c r="B567" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D567" t="s">
         <v>1</v>
@@ -12518,7 +12515,7 @@
         <v>1124</v>
       </c>
       <c r="B568" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D568" t="s">
         <v>1</v>
@@ -12532,7 +12529,7 @@
         <v>1125</v>
       </c>
       <c r="B569" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D569" t="s">
         <v>1</v>
@@ -12546,7 +12543,7 @@
         <v>1126</v>
       </c>
       <c r="B570" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D570" t="s">
         <v>1</v>
@@ -12560,7 +12557,7 @@
         <v>1127</v>
       </c>
       <c r="B571" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D571" t="s">
         <v>1</v>
@@ -12574,7 +12571,7 @@
         <v>1128</v>
       </c>
       <c r="B572" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D572" t="s">
         <v>1</v>
@@ -12588,7 +12585,7 @@
         <v>1129</v>
       </c>
       <c r="B573" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D573" t="s">
         <v>1</v>
@@ -12602,7 +12599,7 @@
         <v>1130</v>
       </c>
       <c r="B574" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D574" t="s">
         <v>1</v>
@@ -12616,7 +12613,7 @@
         <v>1131</v>
       </c>
       <c r="B575" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D575" t="s">
         <v>1</v>
@@ -12630,7 +12627,7 @@
         <v>1132</v>
       </c>
       <c r="B576" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D576" t="s">
         <v>1</v>
@@ -12644,7 +12641,7 @@
         <v>1133</v>
       </c>
       <c r="B577" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D577" t="s">
         <v>1</v>
@@ -12658,7 +12655,7 @@
         <v>1134</v>
       </c>
       <c r="B578" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D578" t="s">
         <v>1</v>
@@ -12672,7 +12669,7 @@
         <v>1135</v>
       </c>
       <c r="B579" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D579" t="s">
         <v>1</v>
@@ -12686,7 +12683,7 @@
         <v>1136</v>
       </c>
       <c r="B580" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D580" t="s">
         <v>1</v>
@@ -12700,7 +12697,7 @@
         <v>1137</v>
       </c>
       <c r="B581" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D581" t="s">
         <v>1</v>
@@ -12714,7 +12711,7 @@
         <v>1138</v>
       </c>
       <c r="B582" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D582" t="s">
         <v>1</v>
@@ -12728,7 +12725,7 @@
         <v>1139</v>
       </c>
       <c r="B583" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D583" t="s">
         <v>1</v>
@@ -12742,7 +12739,7 @@
         <v>1140</v>
       </c>
       <c r="B584" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D584" t="s">
         <v>1</v>
@@ -12756,7 +12753,7 @@
         <v>1141</v>
       </c>
       <c r="B585" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D585" t="s">
         <v>1</v>
@@ -12770,7 +12767,7 @@
         <v>1142</v>
       </c>
       <c r="B586" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D586" t="s">
         <v>1</v>
@@ -12784,7 +12781,7 @@
         <v>1143</v>
       </c>
       <c r="B587" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D587" t="s">
         <v>1</v>
@@ -12798,7 +12795,7 @@
         <v>1144</v>
       </c>
       <c r="B588" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D588" t="s">
         <v>1</v>
@@ -12812,7 +12809,7 @@
         <v>1145</v>
       </c>
       <c r="B589" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D589" t="s">
         <v>1</v>
@@ -12826,7 +12823,7 @@
         <v>1146</v>
       </c>
       <c r="B590" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D590" t="s">
         <v>1</v>
@@ -12840,7 +12837,7 @@
         <v>1147</v>
       </c>
       <c r="B591" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D591" t="s">
         <v>1</v>
@@ -12854,7 +12851,7 @@
         <v>1148</v>
       </c>
       <c r="B592" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D592" t="s">
         <v>1</v>
@@ -12868,7 +12865,7 @@
         <v>1149</v>
       </c>
       <c r="B593" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D593" t="s">
         <v>1</v>
@@ -12882,7 +12879,7 @@
         <v>1150</v>
       </c>
       <c r="B594" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D594" t="s">
         <v>1</v>
@@ -12896,7 +12893,7 @@
         <v>1151</v>
       </c>
       <c r="B595" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D595" t="s">
         <v>1</v>
@@ -12910,7 +12907,7 @@
         <v>1152</v>
       </c>
       <c r="B596" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D596" t="s">
         <v>1</v>
@@ -12924,7 +12921,7 @@
         <v>1153</v>
       </c>
       <c r="B597" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D597" t="s">
         <v>1</v>
@@ -12938,7 +12935,7 @@
         <v>1154</v>
       </c>
       <c r="B598" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D598" t="s">
         <v>1</v>
@@ -12952,7 +12949,7 @@
         <v>1155</v>
       </c>
       <c r="B599" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D599" t="s">
         <v>1</v>
@@ -12966,7 +12963,7 @@
         <v>1156</v>
       </c>
       <c r="B600" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D600" t="s">
         <v>1</v>
@@ -12980,7 +12977,7 @@
         <v>1157</v>
       </c>
       <c r="B601" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D601" t="s">
         <v>1</v>
@@ -12994,7 +12991,7 @@
         <v>1158</v>
       </c>
       <c r="B602" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D602" t="s">
         <v>1</v>
@@ -13008,7 +13005,7 @@
         <v>1159</v>
       </c>
       <c r="B603" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D603" t="s">
         <v>1</v>
@@ -13022,7 +13019,7 @@
         <v>1160</v>
       </c>
       <c r="B604" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D604" t="s">
         <v>1</v>
@@ -13036,7 +13033,7 @@
         <v>1161</v>
       </c>
       <c r="B605" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D605" t="s">
         <v>1</v>
@@ -13050,7 +13047,7 @@
         <v>1162</v>
       </c>
       <c r="B606" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D606" t="s">
         <v>1</v>
@@ -13064,7 +13061,7 @@
         <v>1163</v>
       </c>
       <c r="B607" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D607" t="s">
         <v>1</v>
@@ -13078,7 +13075,7 @@
         <v>1164</v>
       </c>
       <c r="B608" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D608" t="s">
         <v>1</v>
@@ -13092,7 +13089,7 @@
         <v>1165</v>
       </c>
       <c r="B609" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D609" t="s">
         <v>1</v>
@@ -13106,7 +13103,7 @@
         <v>1166</v>
       </c>
       <c r="B610" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D610" t="s">
         <v>1</v>
@@ -13120,7 +13117,7 @@
         <v>1167</v>
       </c>
       <c r="B611" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D611" t="s">
         <v>1</v>
@@ -13134,7 +13131,7 @@
         <v>1168</v>
       </c>
       <c r="B612" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D612" t="s">
         <v>1</v>
@@ -13148,7 +13145,7 @@
         <v>1169</v>
       </c>
       <c r="B613" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D613" t="s">
         <v>1</v>
@@ -13162,7 +13159,7 @@
         <v>1170</v>
       </c>
       <c r="B614" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D614" t="s">
         <v>1</v>
@@ -13176,7 +13173,7 @@
         <v>1171</v>
       </c>
       <c r="B615" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D615" t="s">
         <v>1</v>
@@ -13190,7 +13187,7 @@
         <v>1172</v>
       </c>
       <c r="B616" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D616" t="s">
         <v>1</v>
@@ -13204,7 +13201,7 @@
         <v>1173</v>
       </c>
       <c r="B617" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D617" t="s">
         <v>1</v>
@@ -13218,7 +13215,7 @@
         <v>1174</v>
       </c>
       <c r="B618" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D618" t="s">
         <v>1</v>
@@ -13232,7 +13229,7 @@
         <v>1175</v>
       </c>
       <c r="B619" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D619" t="s">
         <v>1</v>
@@ -13246,7 +13243,7 @@
         <v>1176</v>
       </c>
       <c r="B620" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D620" t="s">
         <v>1</v>
@@ -13260,7 +13257,7 @@
         <v>1177</v>
       </c>
       <c r="B621" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D621" t="s">
         <v>1</v>
@@ -13274,7 +13271,7 @@
         <v>1178</v>
       </c>
       <c r="B622" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D622" t="s">
         <v>1</v>
@@ -13288,7 +13285,7 @@
         <v>1179</v>
       </c>
       <c r="B623" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D623" t="s">
         <v>1</v>
@@ -13302,7 +13299,7 @@
         <v>1180</v>
       </c>
       <c r="B624" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D624" t="s">
         <v>1</v>
@@ -13316,7 +13313,7 @@
         <v>1181</v>
       </c>
       <c r="B625" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D625" t="s">
         <v>1</v>
@@ -13330,7 +13327,7 @@
         <v>1182</v>
       </c>
       <c r="B626" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D626" t="s">
         <v>1</v>
@@ -13344,7 +13341,7 @@
         <v>1183</v>
       </c>
       <c r="B627" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D627" t="s">
         <v>1</v>
@@ -13358,7 +13355,7 @@
         <v>1184</v>
       </c>
       <c r="B628" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D628" t="s">
         <v>1</v>
@@ -13372,7 +13369,7 @@
         <v>1185</v>
       </c>
       <c r="B629" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D629" t="s">
         <v>1</v>
@@ -13386,7 +13383,7 @@
         <v>1186</v>
       </c>
       <c r="B630" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D630" t="s">
         <v>1</v>
@@ -13400,7 +13397,7 @@
         <v>1187</v>
       </c>
       <c r="B631" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D631" t="s">
         <v>1</v>
@@ -13414,7 +13411,7 @@
         <v>1188</v>
       </c>
       <c r="B632" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D632" t="s">
         <v>1</v>
@@ -13428,7 +13425,7 @@
         <v>1189</v>
       </c>
       <c r="B633" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D633" t="s">
         <v>1</v>
@@ -13442,7 +13439,7 @@
         <v>1190</v>
       </c>
       <c r="B634" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D634" t="s">
         <v>1</v>
@@ -13456,7 +13453,7 @@
         <v>1191</v>
       </c>
       <c r="B635" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D635" t="s">
         <v>1</v>
@@ -13470,7 +13467,7 @@
         <v>1192</v>
       </c>
       <c r="B636" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D636" t="s">
         <v>1</v>
@@ -13484,7 +13481,7 @@
         <v>1193</v>
       </c>
       <c r="B637" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D637" t="s">
         <v>1</v>
@@ -13498,7 +13495,7 @@
         <v>1194</v>
       </c>
       <c r="B638" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D638" t="s">
         <v>1</v>
@@ -13512,7 +13509,7 @@
         <v>1195</v>
       </c>
       <c r="B639" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D639" t="s">
         <v>1</v>
@@ -13526,7 +13523,7 @@
         <v>1196</v>
       </c>
       <c r="B640" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D640" t="s">
         <v>1</v>
@@ -13540,7 +13537,7 @@
         <v>1197</v>
       </c>
       <c r="B641" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D641" t="s">
         <v>1</v>
@@ -13554,7 +13551,7 @@
         <v>1198</v>
       </c>
       <c r="B642" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D642" t="s">
         <v>1</v>
@@ -13568,7 +13565,7 @@
         <v>1199</v>
       </c>
       <c r="B643" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D643" t="s">
         <v>1</v>
@@ -13582,7 +13579,7 @@
         <v>1200</v>
       </c>
       <c r="B644" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D644" t="s">
         <v>1</v>
@@ -13596,7 +13593,7 @@
         <v>1201</v>
       </c>
       <c r="B645" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D645" t="s">
         <v>1</v>
@@ -13610,7 +13607,7 @@
         <v>1202</v>
       </c>
       <c r="B646" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D646" t="s">
         <v>1</v>
@@ -13624,7 +13621,7 @@
         <v>1203</v>
       </c>
       <c r="B647" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D647" t="s">
         <v>1</v>
@@ -13638,7 +13635,7 @@
         <v>1204</v>
       </c>
       <c r="B648" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D648" t="s">
         <v>1</v>
@@ -13652,7 +13649,7 @@
         <v>1205</v>
       </c>
       <c r="B649" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D649" t="s">
         <v>1</v>
@@ -13666,7 +13663,7 @@
         <v>1206</v>
       </c>
       <c r="B650" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D650" t="s">
         <v>1</v>
@@ -13680,7 +13677,7 @@
         <v>1207</v>
       </c>
       <c r="B651" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D651" t="s">
         <v>1</v>
@@ -13694,7 +13691,7 @@
         <v>1208</v>
       </c>
       <c r="B652" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D652" t="s">
         <v>1</v>
@@ -13708,7 +13705,7 @@
         <v>1209</v>
       </c>
       <c r="B653" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D653" t="s">
         <v>1</v>
@@ -13722,7 +13719,7 @@
         <v>1210</v>
       </c>
       <c r="B654" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D654" t="s">
         <v>1</v>
@@ -13736,7 +13733,7 @@
         <v>1211</v>
       </c>
       <c r="B655" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D655" t="s">
         <v>1</v>
@@ -13750,7 +13747,7 @@
         <v>1212</v>
       </c>
       <c r="B656" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D656" t="s">
         <v>1</v>
@@ -13764,7 +13761,7 @@
         <v>1213</v>
       </c>
       <c r="B657" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D657" t="s">
         <v>1</v>
@@ -13778,7 +13775,7 @@
         <v>1214</v>
       </c>
       <c r="B658" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D658" t="s">
         <v>1</v>
@@ -13792,7 +13789,7 @@
         <v>1215</v>
       </c>
       <c r="B659" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D659" t="s">
         <v>1</v>
@@ -13806,7 +13803,7 @@
         <v>1216</v>
       </c>
       <c r="B660" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D660" t="s">
         <v>1</v>
@@ -13820,7 +13817,7 @@
         <v>1217</v>
       </c>
       <c r="B661" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D661" t="s">
         <v>1</v>
@@ -13834,7 +13831,7 @@
         <v>1218</v>
       </c>
       <c r="B662" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D662" t="s">
         <v>1</v>
@@ -13848,13 +13845,13 @@
         <v>1219</v>
       </c>
       <c r="B663" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D663" t="s">
         <v>1</v>
       </c>
       <c r="E663" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
@@ -13862,7 +13859,7 @@
         <v>1220</v>
       </c>
       <c r="B664" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D664" t="s">
         <v>1</v>
@@ -13876,7 +13873,7 @@
         <v>1221</v>
       </c>
       <c r="B665" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D665" t="s">
         <v>1</v>
@@ -13890,13 +13887,13 @@
         <v>1222</v>
       </c>
       <c r="B666" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D666" t="s">
         <v>1</v>
       </c>
       <c r="E666" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
@@ -13904,7 +13901,7 @@
         <v>1223</v>
       </c>
       <c r="B667" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D667" t="s">
         <v>1</v>
@@ -13918,7 +13915,7 @@
         <v>1224</v>
       </c>
       <c r="B668" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D668" t="s">
         <v>1</v>
@@ -13932,7 +13929,7 @@
         <v>1225</v>
       </c>
       <c r="B669" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D669" t="s">
         <v>1</v>
@@ -13946,7 +13943,7 @@
         <v>1226</v>
       </c>
       <c r="B670" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D670" t="s">
         <v>1</v>
@@ -13960,7 +13957,7 @@
         <v>1227</v>
       </c>
       <c r="B671" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D671" t="s">
         <v>1</v>
@@ -13974,7 +13971,7 @@
         <v>1228</v>
       </c>
       <c r="B672" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D672" t="s">
         <v>1</v>
@@ -13988,13 +13985,13 @@
         <v>1229</v>
       </c>
       <c r="B673" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D673" t="s">
         <v>1</v>
       </c>
       <c r="E673" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.2">
@@ -14002,7 +13999,7 @@
         <v>1230</v>
       </c>
       <c r="B674" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D674" t="s">
         <v>1</v>
@@ -14016,7 +14013,7 @@
         <v>1231</v>
       </c>
       <c r="B675" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D675" t="s">
         <v>1</v>
@@ -14030,7 +14027,7 @@
         <v>1232</v>
       </c>
       <c r="B676" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D676" t="s">
         <v>1</v>
@@ -14044,7 +14041,7 @@
         <v>1233</v>
       </c>
       <c r="B677" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D677" t="s">
         <v>1</v>
@@ -14058,7 +14055,7 @@
         <v>1234</v>
       </c>
       <c r="B678" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D678" t="s">
         <v>1</v>
@@ -14072,7 +14069,7 @@
         <v>1235</v>
       </c>
       <c r="B679" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D679" t="s">
         <v>1</v>
@@ -14086,13 +14083,13 @@
         <v>1236</v>
       </c>
       <c r="B680" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D680" t="s">
         <v>1</v>
       </c>
       <c r="E680" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.2">
@@ -14100,7 +14097,7 @@
         <v>1237</v>
       </c>
       <c r="B681" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D681" t="s">
         <v>1</v>
@@ -14114,7 +14111,7 @@
         <v>1238</v>
       </c>
       <c r="B682" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D682" t="s">
         <v>1</v>
@@ -14128,13 +14125,13 @@
         <v>1239</v>
       </c>
       <c r="B683" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D683" t="s">
         <v>1</v>
       </c>
       <c r="E683" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">
@@ -14142,7 +14139,7 @@
         <v>1240</v>
       </c>
       <c r="B684" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D684" t="s">
         <v>1</v>
@@ -14156,7 +14153,7 @@
         <v>1241</v>
       </c>
       <c r="B685" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D685" t="s">
         <v>1</v>
@@ -14170,7 +14167,7 @@
         <v>1242</v>
       </c>
       <c r="B686" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D686" t="s">
         <v>1</v>
@@ -14184,13 +14181,13 @@
         <v>1243</v>
       </c>
       <c r="B687" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D687" t="s">
         <v>1</v>
       </c>
       <c r="E687" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.2">
@@ -14198,7 +14195,7 @@
         <v>1244</v>
       </c>
       <c r="B688" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D688" t="s">
         <v>1</v>
@@ -14212,7 +14209,7 @@
         <v>1245</v>
       </c>
       <c r="B689" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D689" t="s">
         <v>1</v>
@@ -14226,7 +14223,7 @@
         <v>1246</v>
       </c>
       <c r="B690" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D690" t="s">
         <v>1</v>
@@ -14240,13 +14237,13 @@
         <v>1247</v>
       </c>
       <c r="B691" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D691" t="s">
         <v>1</v>
       </c>
       <c r="E691" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.2">
@@ -14254,7 +14251,7 @@
         <v>1248</v>
       </c>
       <c r="B692" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D692" t="s">
         <v>1</v>
@@ -14268,7 +14265,7 @@
         <v>1249</v>
       </c>
       <c r="B693" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D693" t="s">
         <v>1</v>
@@ -14282,7 +14279,7 @@
         <v>1250</v>
       </c>
       <c r="B694" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D694" t="s">
         <v>1</v>
@@ -14296,13 +14293,13 @@
         <v>1251</v>
       </c>
       <c r="B695" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D695" t="s">
         <v>1</v>
       </c>
       <c r="E695" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.2">
@@ -14310,7 +14307,7 @@
         <v>1252</v>
       </c>
       <c r="B696" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D696" t="s">
         <v>1</v>
@@ -14324,7 +14321,7 @@
         <v>1253</v>
       </c>
       <c r="B697" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D697" t="s">
         <v>1</v>
@@ -14338,7 +14335,7 @@
         <v>1254</v>
       </c>
       <c r="B698" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D698" t="s">
         <v>1</v>
@@ -14352,13 +14349,13 @@
         <v>1255</v>
       </c>
       <c r="B699" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D699" t="s">
         <v>1</v>
       </c>
       <c r="E699" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
@@ -14366,7 +14363,7 @@
         <v>1256</v>
       </c>
       <c r="B700" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D700" t="s">
         <v>1</v>
@@ -14380,7 +14377,7 @@
         <v>1257</v>
       </c>
       <c r="B701" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D701" t="s">
         <v>1</v>
@@ -14394,7 +14391,7 @@
         <v>1258</v>
       </c>
       <c r="B702" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D702" t="s">
         <v>1</v>
@@ -14408,13 +14405,13 @@
         <v>1259</v>
       </c>
       <c r="B703" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D703" t="s">
         <v>1</v>
       </c>
       <c r="E703" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.2">
@@ -14422,13 +14419,13 @@
         <v>1260</v>
       </c>
       <c r="B704" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D704" t="s">
         <v>1</v>
       </c>
       <c r="E704" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.2">
@@ -14436,7 +14433,7 @@
         <v>1261</v>
       </c>
       <c r="B705" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D705" t="s">
         <v>1</v>
@@ -14450,7 +14447,7 @@
         <v>1262</v>
       </c>
       <c r="B706" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D706" t="s">
         <v>1</v>
@@ -14464,13 +14461,13 @@
         <v>1263</v>
       </c>
       <c r="B707" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D707" t="s">
         <v>1</v>
       </c>
       <c r="E707" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.2">
@@ -14478,7 +14475,7 @@
         <v>1264</v>
       </c>
       <c r="B708" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D708" t="s">
         <v>1</v>
@@ -14492,7 +14489,7 @@
         <v>1265</v>
       </c>
       <c r="B709" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D709" t="s">
         <v>1</v>
@@ -14506,7 +14503,7 @@
         <v>1266</v>
       </c>
       <c r="B710" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D710" t="s">
         <v>1</v>
@@ -14520,7 +14517,7 @@
         <v>1267</v>
       </c>
       <c r="B711" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D711" t="s">
         <v>1</v>
@@ -14534,7 +14531,7 @@
         <v>1268</v>
       </c>
       <c r="B712" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D712" t="s">
         <v>1</v>
@@ -14548,13 +14545,13 @@
         <v>1269</v>
       </c>
       <c r="B713" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D713" t="s">
         <v>1</v>
       </c>
       <c r="E713" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.2">
@@ -14562,7 +14559,7 @@
         <v>1270</v>
       </c>
       <c r="B714" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D714" t="s">
         <v>1</v>
@@ -14576,7 +14573,7 @@
         <v>1271</v>
       </c>
       <c r="B715" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D715" t="s">
         <v>1</v>
@@ -14590,13 +14587,13 @@
         <v>1272</v>
       </c>
       <c r="B716" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D716" t="s">
         <v>1</v>
       </c>
       <c r="E716" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.2">
@@ -14604,7 +14601,7 @@
         <v>1273</v>
       </c>
       <c r="B717" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D717" t="s">
         <v>1</v>
@@ -14618,7 +14615,7 @@
         <v>1274</v>
       </c>
       <c r="B718" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D718" t="s">
         <v>1</v>
@@ -14632,13 +14629,13 @@
         <v>1275</v>
       </c>
       <c r="B719" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D719" t="s">
         <v>1</v>
       </c>
       <c r="E719" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.2">
@@ -14646,13 +14643,13 @@
         <v>1276</v>
       </c>
       <c r="B720" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D720" t="s">
         <v>1</v>
       </c>
       <c r="E720" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
@@ -14660,7 +14657,7 @@
         <v>1277</v>
       </c>
       <c r="B721" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D721" t="s">
         <v>1</v>
@@ -14674,7 +14671,7 @@
         <v>1278</v>
       </c>
       <c r="B722" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D722" t="s">
         <v>1</v>
@@ -14688,7 +14685,7 @@
         <v>1279</v>
       </c>
       <c r="B723" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D723" t="s">
         <v>1</v>
@@ -14702,13 +14699,13 @@
         <v>1280</v>
       </c>
       <c r="B724" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D724" t="s">
         <v>1</v>
       </c>
       <c r="E724" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
@@ -14716,7 +14713,7 @@
         <v>1281</v>
       </c>
       <c r="B725" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D725" t="s">
         <v>1</v>
@@ -14730,7 +14727,7 @@
         <v>1282</v>
       </c>
       <c r="B726" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D726" t="s">
         <v>1</v>
@@ -14744,7 +14741,7 @@
         <v>1283</v>
       </c>
       <c r="B727" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D727" t="s">
         <v>1</v>
@@ -14758,7 +14755,7 @@
         <v>1284</v>
       </c>
       <c r="B728" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D728" t="s">
         <v>1</v>
@@ -14772,7 +14769,7 @@
         <v>1285</v>
       </c>
       <c r="B729" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D729" t="s">
         <v>1</v>
@@ -14786,7 +14783,7 @@
         <v>1286</v>
       </c>
       <c r="B730" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D730" t="s">
         <v>1</v>
@@ -14800,7 +14797,7 @@
         <v>1287</v>
       </c>
       <c r="B731" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D731" t="s">
         <v>1</v>
@@ -14814,7 +14811,7 @@
         <v>1288</v>
       </c>
       <c r="B732" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D732" t="s">
         <v>1</v>
@@ -14828,7 +14825,7 @@
         <v>1289</v>
       </c>
       <c r="B733" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D733" t="s">
         <v>1</v>
@@ -14842,7 +14839,7 @@
         <v>1290</v>
       </c>
       <c r="B734" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D734" t="s">
         <v>1</v>
@@ -14856,7 +14853,7 @@
         <v>1291</v>
       </c>
       <c r="B735" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D735" t="s">
         <v>1</v>
@@ -14870,7 +14867,7 @@
         <v>1292</v>
       </c>
       <c r="B736" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D736" t="s">
         <v>1</v>
@@ -14884,7 +14881,7 @@
         <v>1293</v>
       </c>
       <c r="B737" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D737" t="s">
         <v>1</v>
@@ -14898,7 +14895,7 @@
         <v>1294</v>
       </c>
       <c r="B738" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D738" t="s">
         <v>1</v>
@@ -14912,7 +14909,7 @@
         <v>1295</v>
       </c>
       <c r="B739" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D739" t="s">
         <v>1</v>
@@ -14926,7 +14923,7 @@
         <v>1296</v>
       </c>
       <c r="B740" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D740" t="s">
         <v>1</v>
@@ -14940,7 +14937,7 @@
         <v>1297</v>
       </c>
       <c r="B741" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D741" t="s">
         <v>1</v>
@@ -14954,13 +14951,13 @@
         <v>1298</v>
       </c>
       <c r="B742" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D742" t="s">
         <v>1</v>
       </c>
       <c r="E742" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.2">
@@ -14968,7 +14965,7 @@
         <v>1299</v>
       </c>
       <c r="B743" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D743" t="s">
         <v>1</v>
@@ -14982,13 +14979,13 @@
         <v>1300</v>
       </c>
       <c r="B744" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D744" t="s">
         <v>1</v>
       </c>
       <c r="E744" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.2">
@@ -14996,7 +14993,7 @@
         <v>1301</v>
       </c>
       <c r="B745" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D745" t="s">
         <v>1</v>
@@ -15010,13 +15007,13 @@
         <v>1302</v>
       </c>
       <c r="B746" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D746" t="s">
         <v>1</v>
       </c>
       <c r="E746" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.2">
@@ -15024,7 +15021,7 @@
         <v>1303</v>
       </c>
       <c r="B747" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D747" t="s">
         <v>1</v>
@@ -15038,7 +15035,7 @@
         <v>1304</v>
       </c>
       <c r="B748" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D748" t="s">
         <v>1</v>
@@ -15052,7 +15049,7 @@
         <v>1305</v>
       </c>
       <c r="B749" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D749" t="s">
         <v>1</v>
@@ -15066,7 +15063,7 @@
         <v>1306</v>
       </c>
       <c r="B750" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D750" t="s">
         <v>1</v>
@@ -15080,7 +15077,7 @@
         <v>1307</v>
       </c>
       <c r="B751" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D751" t="s">
         <v>1</v>
@@ -15094,7 +15091,7 @@
         <v>1308</v>
       </c>
       <c r="B752" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D752" t="s">
         <v>1</v>
@@ -15108,7 +15105,7 @@
         <v>1309</v>
       </c>
       <c r="B753" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D753" t="s">
         <v>1</v>
@@ -15122,13 +15119,13 @@
         <v>1310</v>
       </c>
       <c r="B754" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D754" t="s">
         <v>1</v>
       </c>
       <c r="E754" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.2">
@@ -15136,7 +15133,7 @@
         <v>1311</v>
       </c>
       <c r="B755" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D755" t="s">
         <v>1</v>
@@ -15150,7 +15147,7 @@
         <v>1312</v>
       </c>
       <c r="B756" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D756" t="s">
         <v>1</v>
@@ -15164,7 +15161,7 @@
         <v>1313</v>
       </c>
       <c r="B757" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D757" t="s">
         <v>1</v>
@@ -15178,13 +15175,13 @@
         <v>1314</v>
       </c>
       <c r="B758" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D758" t="s">
         <v>1</v>
       </c>
       <c r="E758" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.2">
@@ -15192,7 +15189,7 @@
         <v>1315</v>
       </c>
       <c r="B759" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D759" t="s">
         <v>1</v>
@@ -15206,13 +15203,13 @@
         <v>1316</v>
       </c>
       <c r="B760" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D760" t="s">
         <v>1</v>
       </c>
       <c r="E760" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
@@ -15220,13 +15217,13 @@
         <v>1317</v>
       </c>
       <c r="B761" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D761" t="s">
         <v>1</v>
       </c>
       <c r="E761" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.2">
@@ -15234,7 +15231,7 @@
         <v>1318</v>
       </c>
       <c r="B762" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D762" t="s">
         <v>1</v>
@@ -15248,13 +15245,13 @@
         <v>1319</v>
       </c>
       <c r="B763" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D763" t="s">
         <v>1</v>
       </c>
       <c r="E763" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
@@ -15262,13 +15259,13 @@
         <v>1320</v>
       </c>
       <c r="B764" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D764" t="s">
         <v>1</v>
       </c>
       <c r="E764" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.2">
@@ -15276,7 +15273,7 @@
         <v>1321</v>
       </c>
       <c r="B765" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D765" t="s">
         <v>1</v>
@@ -15290,13 +15287,13 @@
         <v>1322</v>
       </c>
       <c r="B766" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D766" t="s">
         <v>1</v>
       </c>
       <c r="E766" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.2">
@@ -15304,7 +15301,7 @@
         <v>1323</v>
       </c>
       <c r="B767" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D767" t="s">
         <v>1</v>
@@ -15318,13 +15315,13 @@
         <v>1324</v>
       </c>
       <c r="B768" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D768" t="s">
         <v>1</v>
       </c>
       <c r="E768" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
@@ -15332,13 +15329,13 @@
         <v>1325</v>
       </c>
       <c r="B769" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D769" t="s">
         <v>1</v>
       </c>
       <c r="E769" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
@@ -15346,13 +15343,13 @@
         <v>1326</v>
       </c>
       <c r="B770" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D770" t="s">
         <v>1</v>
       </c>
       <c r="E770" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.2">
@@ -15360,13 +15357,13 @@
         <v>1327</v>
       </c>
       <c r="B771" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D771" t="s">
         <v>1</v>
       </c>
       <c r="E771" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.2">
@@ -15374,13 +15371,13 @@
         <v>1328</v>
       </c>
       <c r="B772" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D772" t="s">
         <v>1</v>
       </c>
       <c r="E772" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.2">
@@ -15388,13 +15385,13 @@
         <v>1329</v>
       </c>
       <c r="B773" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D773" t="s">
         <v>1</v>
       </c>
       <c r="E773" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.2">
@@ -15402,7 +15399,7 @@
         <v>1330</v>
       </c>
       <c r="B774" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D774" t="s">
         <v>1</v>
@@ -15416,7 +15413,7 @@
         <v>1331</v>
       </c>
       <c r="B775" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D775" t="s">
         <v>1</v>
@@ -15430,13 +15427,13 @@
         <v>1332</v>
       </c>
       <c r="B776" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D776" t="s">
         <v>1</v>
       </c>
       <c r="E776" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.2">
@@ -15444,13 +15441,13 @@
         <v>1333</v>
       </c>
       <c r="B777" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D777" t="s">
         <v>1</v>
       </c>
       <c r="E777" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
@@ -15458,13 +15455,13 @@
         <v>1334</v>
       </c>
       <c r="B778" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D778" t="s">
         <v>1</v>
       </c>
       <c r="E778" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
@@ -15472,37 +15469,23 @@
         <v>1335</v>
       </c>
       <c r="B779" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D779" t="s">
         <v>1</v>
       </c>
       <c r="E779" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A780" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B780" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D780" t="s">
-        <v>1</v>
-      </c>
-      <c r="E780" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D780" xr:uid="{93592046-CA29-4529-A6B8-2F3073607F7B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D780">
-      <sortCondition ref="C1:C780"/>
+  <autoFilter ref="A1:D779" xr:uid="{93592046-CA29-4529-A6B8-2F3073607F7B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D779">
+      <sortCondition ref="C1:C779"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A1667">
-    <sortCondition ref="A1:A1667"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A1666">
+    <sortCondition ref="A1:A1666"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
